--- a/outcome/appendix/forecast/Scarlet fever.xlsx
+++ b/outcome/appendix/forecast/Scarlet fever.xlsx
@@ -424,19 +424,19 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>8590.57993860146</v>
+        <v>8590.57953632247</v>
       </c>
       <c r="C2" t="n">
-        <v>7121.02850959001</v>
+        <v>7121.02818047126</v>
       </c>
       <c r="D2" t="n">
-        <v>6442.67112695973</v>
+        <v>6442.67083130716</v>
       </c>
       <c r="E2" t="n">
-        <v>10343.4914830863</v>
+        <v>10343.4909925406</v>
       </c>
       <c r="F2" t="n">
-        <v>11403.1710311943</v>
+        <v>11403.1704868412</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -445,7 +445,7 @@
         <v>6352</v>
       </c>
       <c r="I2" t="n">
-        <v>2238.57993860146</v>
+        <v>2238.57953632247</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -456,19 +456,19 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>3578.13491281981</v>
+        <v>3578.1347088125</v>
       </c>
       <c r="C3" t="n">
-        <v>2753.58289600499</v>
+        <v>2753.58274417003</v>
       </c>
       <c r="D3" t="n">
-        <v>2393.34659324246</v>
+        <v>2393.34646369897</v>
       </c>
       <c r="E3" t="n">
-        <v>4632.27197730563</v>
+        <v>4632.27170476099</v>
       </c>
       <c r="F3" t="n">
-        <v>5302.92312495933</v>
+        <v>5302.9228079539</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -477,7 +477,7 @@
         <v>580</v>
       </c>
       <c r="I3" t="n">
-        <v>2998.13491281981</v>
+        <v>2998.1347088125</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -488,19 +488,19 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>6668.24289605788</v>
+        <v>6668.24239234309</v>
       </c>
       <c r="C4" t="n">
-        <v>4979.13182342692</v>
+        <v>4979.13146205966</v>
       </c>
       <c r="D4" t="n">
-        <v>4257.57210237586</v>
+        <v>4257.57180022229</v>
       </c>
       <c r="E4" t="n">
-        <v>8889.07180335105</v>
+        <v>8889.0711063671</v>
       </c>
       <c r="F4" t="n">
-        <v>10331.2333608128</v>
+        <v>10331.2325354305</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -509,7 +509,7 @@
         <v>444</v>
       </c>
       <c r="I4" t="n">
-        <v>6224.24289605788</v>
+        <v>6224.24239234309</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -520,19 +520,19 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>9351.03585089486</v>
+        <v>9351.03487391801</v>
       </c>
       <c r="C5" t="n">
-        <v>6839.23988719704</v>
+        <v>6839.23919857167</v>
       </c>
       <c r="D5" t="n">
-        <v>5782.70925935851</v>
+        <v>5782.70868902786</v>
       </c>
       <c r="E5" t="n">
-        <v>12717.6211707501</v>
+        <v>12717.6197954555</v>
       </c>
       <c r="F5" t="n">
-        <v>14934.614583157</v>
+        <v>14934.6129398948</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -541,7 +541,7 @@
         <v>442</v>
       </c>
       <c r="I5" t="n">
-        <v>8909.03585089486</v>
+        <v>8909.03487391801</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -552,19 +552,19 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>14722.0837862616</v>
+        <v>14722.082057964</v>
       </c>
       <c r="C6" t="n">
-        <v>10657.0480840771</v>
+        <v>10657.0468831544</v>
       </c>
       <c r="D6" t="n">
-        <v>8960.32571744234</v>
+        <v>8960.32473066616</v>
       </c>
       <c r="E6" t="n">
-        <v>20222.8657218238</v>
+        <v>20222.8632558841</v>
       </c>
       <c r="F6" t="n">
-        <v>23870.5362467143</v>
+        <v>23870.5332800852</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -573,7 +573,7 @@
         <v>562</v>
       </c>
       <c r="I6" t="n">
-        <v>14160.0837862616</v>
+        <v>14160.082057964</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -584,19 +584,19 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>14836.3437263255</v>
+        <v>14836.3416586993</v>
       </c>
       <c r="C7" t="n">
-        <v>10600.7093894638</v>
+        <v>10600.7079695827</v>
       </c>
       <c r="D7" t="n">
-        <v>8849.95039927475</v>
+        <v>8849.94924002133</v>
       </c>
       <c r="E7" t="n">
-        <v>20637.6115316652</v>
+        <v>20637.6085477404</v>
       </c>
       <c r="F7" t="n">
-        <v>24518.3508531869</v>
+        <v>24518.3472422032</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -605,7 +605,7 @@
         <v>677</v>
       </c>
       <c r="I7" t="n">
-        <v>14159.3437263255</v>
+        <v>14159.3416586993</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -616,19 +616,19 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>7550.15664400176</v>
+        <v>7550.15536568543</v>
       </c>
       <c r="C8" t="n">
-        <v>5272.08527701655</v>
+        <v>5272.08441636402</v>
       </c>
       <c r="D8" t="n">
-        <v>4346.56548403894</v>
+        <v>4346.56478885668</v>
       </c>
       <c r="E8" t="n">
-        <v>10737.3662673566</v>
+        <v>10737.3643868215</v>
       </c>
       <c r="F8" t="n">
-        <v>12902.4668612205</v>
+        <v>12902.4645628356</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -637,7 +637,7 @@
         <v>763</v>
       </c>
       <c r="I8" t="n">
-        <v>6787.15664400176</v>
+        <v>6787.15536568543</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -648,19 +648,19 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>3395.84366820216</v>
+        <v>3395.84301846091</v>
       </c>
       <c r="C9" t="n">
-        <v>2314.49397991744</v>
+        <v>2314.49355282695</v>
       </c>
       <c r="D9" t="n">
-        <v>1883.10124912317</v>
+        <v>1883.1009086456</v>
       </c>
       <c r="E9" t="n">
-        <v>4942.98647382581</v>
+        <v>4942.98549580286</v>
       </c>
       <c r="F9" t="n">
-        <v>6011.04716532194</v>
+        <v>6011.04595584846</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -669,7 +669,7 @@
         <v>763</v>
       </c>
       <c r="I9" t="n">
-        <v>2632.84366820216</v>
+        <v>2632.84301846091</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -680,19 +680,19 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>4392.7614483202</v>
+        <v>4392.76055639318</v>
       </c>
       <c r="C10" t="n">
-        <v>2992.94931172296</v>
+        <v>2992.94872571311</v>
       </c>
       <c r="D10" t="n">
-        <v>2434.65142388288</v>
+        <v>2434.65095683657</v>
       </c>
       <c r="E10" t="n">
-        <v>6396.16944738717</v>
+        <v>6396.16810422271</v>
       </c>
       <c r="F10" t="n">
-        <v>7779.51992007106</v>
+        <v>7779.51825867515</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -701,7 +701,7 @@
         <v>877</v>
       </c>
       <c r="I10" t="n">
-        <v>3515.7614483202</v>
+        <v>3515.76055639318</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -712,19 +712,19 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>6411.46652137167</v>
+        <v>6411.46511503291</v>
       </c>
       <c r="C11" t="n">
-        <v>4384.70236439242</v>
+        <v>4384.70143511113</v>
       </c>
       <c r="D11" t="n">
-        <v>3574.07713579348</v>
+        <v>3574.07639279365</v>
       </c>
       <c r="E11" t="n">
-        <v>9302.18452358154</v>
+        <v>9302.18241704221</v>
       </c>
       <c r="F11" t="n">
-        <v>11293.2821766394</v>
+        <v>11293.2795780111</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -733,7 +733,7 @@
         <v>1102</v>
       </c>
       <c r="I11" t="n">
-        <v>5309.46652137167</v>
+        <v>5309.46511503291</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -744,19 +744,19 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>11194.8241286755</v>
+        <v>11194.8217025497</v>
       </c>
       <c r="C12" t="n">
-        <v>7721.32030093031</v>
+        <v>7721.31868761857</v>
       </c>
       <c r="D12" t="n">
-        <v>6323.14130142552</v>
+        <v>6323.14000711503</v>
       </c>
       <c r="E12" t="n">
-        <v>16110.2311451291</v>
+        <v>16110.2275334528</v>
       </c>
       <c r="F12" t="n">
-        <v>19476.8396759799</v>
+        <v>19476.8352348919</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -765,7 +765,7 @@
         <v>1925</v>
       </c>
       <c r="I12" t="n">
-        <v>9269.82412867551</v>
+        <v>9269.82170254972</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -776,19 +776,19 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>14433.062703804</v>
+        <v>14433.05955765</v>
       </c>
       <c r="C13" t="n">
-        <v>9983.62554050036</v>
+        <v>9983.62344499618</v>
       </c>
       <c r="D13" t="n">
-        <v>8188.70870587974</v>
+        <v>8188.70702329368</v>
       </c>
       <c r="E13" t="n">
-        <v>20712.7258950162</v>
+        <v>20712.7212190889</v>
       </c>
       <c r="F13" t="n">
-        <v>25005.4594593833</v>
+        <v>25005.4537145991</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -797,7 +797,7 @@
         <v>2693</v>
       </c>
       <c r="I13" t="n">
-        <v>11740.062703804</v>
+        <v>11740.05955765</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -808,19 +808,19 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>9916.01703011619</v>
+        <v>9916.01472881047</v>
       </c>
       <c r="C14" t="n">
-        <v>6779.42144222804</v>
+        <v>6779.4199273531</v>
       </c>
       <c r="D14" t="n">
-        <v>5525.18466821001</v>
+        <v>5525.18345965935</v>
       </c>
       <c r="E14" t="n">
-        <v>14390.8691786291</v>
+        <v>14390.8657196936</v>
       </c>
       <c r="F14" t="n">
-        <v>17473.702911902</v>
+        <v>17473.6986377861</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -829,7 +829,7 @@
         <v>2502</v>
       </c>
       <c r="I14" t="n">
-        <v>7414.01703011619</v>
+        <v>7414.01472881047</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -840,19 +840,19 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>3516.83560431998</v>
+        <v>3516.83465544716</v>
       </c>
       <c r="C15" t="n">
-        <v>2343.26668806047</v>
+        <v>2343.26607664103</v>
       </c>
       <c r="D15" t="n">
-        <v>1883.0139623771</v>
+        <v>1883.01348021445</v>
       </c>
       <c r="E15" t="n">
-        <v>5231.39419057242</v>
+        <v>5231.39273464322</v>
       </c>
       <c r="F15" t="n">
-        <v>6432.9115949919</v>
+        <v>6432.90977668453</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -861,7 +861,7 @@
         <v>989</v>
       </c>
       <c r="I15" t="n">
-        <v>2527.83560431998</v>
+        <v>2527.83465544716</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -872,19 +872,19 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>6334.79578092618</v>
+        <v>6334.79405483016</v>
       </c>
       <c r="C16" t="n">
-        <v>4266.85450067972</v>
+        <v>4266.85337647878</v>
       </c>
       <c r="D16" t="n">
-        <v>3449.18763118536</v>
+        <v>3449.18673942181</v>
       </c>
       <c r="E16" t="n">
-        <v>9325.96598757869</v>
+        <v>9325.9633660148</v>
       </c>
       <c r="F16" t="n">
-        <v>11407.1397389175</v>
+        <v>11407.1364819077</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -893,7 +893,7 @@
         <v>1819</v>
       </c>
       <c r="I16" t="n">
-        <v>4515.79578092618</v>
+        <v>4515.79405483016</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -904,19 +904,19 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>9911.44336259577</v>
+        <v>9911.4408246223</v>
       </c>
       <c r="C17" t="n">
-        <v>6729.95087262913</v>
+        <v>6729.94921337598</v>
       </c>
       <c r="D17" t="n">
-        <v>5464.3197849107</v>
+        <v>5464.31846614596</v>
       </c>
       <c r="E17" t="n">
-        <v>14479.2045287646</v>
+        <v>14479.200689049</v>
       </c>
       <c r="F17" t="n">
-        <v>17640.4069299796</v>
+        <v>17640.4021694223</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -925,7 +925,7 @@
         <v>2790</v>
       </c>
       <c r="I17" t="n">
-        <v>7121.44336259577</v>
+        <v>7121.4408246223</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -936,19 +936,19 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>15574.6067416036</v>
+        <v>15574.6028254266</v>
       </c>
       <c r="C18" t="n">
-        <v>10664.3516549422</v>
+        <v>10664.3490767047</v>
       </c>
       <c r="D18" t="n">
-        <v>8698.62356045391</v>
+        <v>8698.62150350501</v>
       </c>
       <c r="E18" t="n">
-        <v>22570.0092881802</v>
+        <v>22570.0034033257</v>
       </c>
       <c r="F18" t="n">
-        <v>27384.4348212979</v>
+        <v>27384.4275505775</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -957,7 +957,7 @@
         <v>4124</v>
       </c>
       <c r="I18" t="n">
-        <v>11450.6067416036</v>
+        <v>11450.6028254266</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -968,19 +968,19 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>15643.1622872789</v>
+        <v>15643.1582118366</v>
       </c>
       <c r="C19" t="n">
-        <v>10702.1118571982</v>
+        <v>10702.1091732963</v>
       </c>
       <c r="D19" t="n">
-        <v>8725.33203301074</v>
+        <v>8725.32989132639</v>
       </c>
       <c r="E19" t="n">
-        <v>22688.0159577883</v>
+        <v>22688.0098349121</v>
       </c>
       <c r="F19" t="n">
-        <v>27539.2374001877</v>
+        <v>27539.2298360197</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -989,7 +989,7 @@
         <v>4165</v>
       </c>
       <c r="I19" t="n">
-        <v>11478.1622872789</v>
+        <v>11478.1582118366</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -1000,19 +1000,19 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>7990.10936459429</v>
+        <v>7990.1071196533</v>
       </c>
       <c r="C20" t="n">
-        <v>5383.63641117186</v>
+        <v>5383.63495176952</v>
       </c>
       <c r="D20" t="n">
-        <v>4352.76888009856</v>
+        <v>4352.76772369593</v>
       </c>
       <c r="E20" t="n">
-        <v>11759.0541070184</v>
+        <v>11759.0506918163</v>
       </c>
       <c r="F20" t="n">
-        <v>14380.7914110793</v>
+        <v>14380.7871646742</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1021,7 +1021,7 @@
         <v>2430</v>
       </c>
       <c r="I20" t="n">
-        <v>5560.10936459429</v>
+        <v>5560.1071196533</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -1032,19 +1032,19 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>3500.53813556448</v>
+        <v>3500.53707549114</v>
       </c>
       <c r="C21" t="n">
-        <v>2313.73959205199</v>
+        <v>2313.73891459106</v>
       </c>
       <c r="D21" t="n">
-        <v>1851.114773444</v>
+        <v>1851.11424162203</v>
       </c>
       <c r="E21" t="n">
-        <v>5247.31827312589</v>
+        <v>5247.31663375547</v>
       </c>
       <c r="F21" t="n">
-        <v>6477.92181850587</v>
+        <v>6477.91976288487</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1053,7 +1053,7 @@
         <v>1152</v>
       </c>
       <c r="I21" t="n">
-        <v>2348.53813556448</v>
+        <v>2348.53707549114</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -1064,19 +1064,19 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>4415.57205203155</v>
+        <v>4415.57068576347</v>
       </c>
       <c r="C22" t="n">
-        <v>2932.83253321092</v>
+        <v>2932.83165475923</v>
       </c>
       <c r="D22" t="n">
-        <v>2352.71141873865</v>
+        <v>2352.71072680894</v>
       </c>
       <c r="E22" t="n">
-        <v>6588.1293661558</v>
+        <v>6588.12726529919</v>
       </c>
       <c r="F22" t="n">
-        <v>8113.77183808504</v>
+        <v>8113.76921141348</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1085,7 +1085,7 @@
         <v>1202</v>
       </c>
       <c r="I22" t="n">
-        <v>3213.57205203155</v>
+        <v>3213.57068576347</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -1096,19 +1096,19 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>7235.52211978222</v>
+        <v>7235.52003086938</v>
       </c>
       <c r="C23" t="n">
-        <v>4857.98947517539</v>
+        <v>4857.98812221493</v>
       </c>
       <c r="D23" t="n">
-        <v>3920.1738967002</v>
+        <v>3920.17282681943</v>
       </c>
       <c r="E23" t="n">
-        <v>10684.6604631878</v>
+        <v>10684.6572741532</v>
       </c>
       <c r="F23" t="n">
-        <v>13089.557337896</v>
+        <v>13089.5533655827</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1117,7 +1117,7 @@
         <v>1634</v>
       </c>
       <c r="I23" t="n">
-        <v>5601.52211978222</v>
+        <v>5601.52003086938</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -1128,19 +1128,19 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>13065.911546507</v>
+        <v>13065.9079742133</v>
       </c>
       <c r="C24" t="n">
-        <v>8884.47429427203</v>
+        <v>8884.47195658153</v>
       </c>
       <c r="D24" t="n">
-        <v>7219.27320811609</v>
+        <v>7219.27134918779</v>
       </c>
       <c r="E24" t="n">
-        <v>19061.4521990692</v>
+        <v>19061.4467996065</v>
       </c>
       <c r="F24" t="n">
-        <v>23206.8681004163</v>
+        <v>23206.8614093431</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1149,7 +1149,7 @@
         <v>2717</v>
       </c>
       <c r="I24" t="n">
-        <v>10348.911546507</v>
+        <v>10348.9079742133</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -1160,19 +1160,19 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>16680.4931164535</v>
+        <v>16680.4885868234</v>
       </c>
       <c r="C25" t="n">
-        <v>11399.5392001167</v>
+        <v>11399.5362214433</v>
       </c>
       <c r="D25" t="n">
-        <v>9288.48130396164</v>
+        <v>9288.47892898207</v>
       </c>
       <c r="E25" t="n">
-        <v>24217.4493190869</v>
+        <v>24217.442504548</v>
       </c>
       <c r="F25" t="n">
-        <v>29411.2454688893</v>
+        <v>29411.2370444323</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1181,7 +1181,7 @@
         <v>3983</v>
       </c>
       <c r="I25" t="n">
-        <v>12697.4931164535</v>
+        <v>12697.4885868234</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
@@ -1192,19 +1192,19 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>11624.6456138967</v>
+        <v>11624.642379713</v>
       </c>
       <c r="C26" t="n">
-        <v>7878.74050171635</v>
+        <v>7878.73839332712</v>
       </c>
       <c r="D26" t="n">
-        <v>6390.64174896362</v>
+        <v>6390.64007590591</v>
       </c>
       <c r="E26" t="n">
-        <v>17011.8805225077</v>
+        <v>17011.8756164624</v>
       </c>
       <c r="F26" t="n">
-        <v>20744.7580579384</v>
+        <v>20744.7519671853</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1213,7 +1213,7 @@
         <v>3232</v>
       </c>
       <c r="I26" t="n">
-        <v>8392.64561389672</v>
+        <v>8392.64237971304</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -1224,19 +1224,19 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>3833.38839679203</v>
+        <v>3833.38715466366</v>
       </c>
       <c r="C27" t="n">
-        <v>2533.25218367379</v>
+        <v>2533.25138938665</v>
       </c>
       <c r="D27" t="n">
-        <v>2026.5214314026</v>
+        <v>2026.52080764822</v>
       </c>
       <c r="E27" t="n">
-        <v>5747.32511718068</v>
+        <v>5747.32319728832</v>
       </c>
       <c r="F27" t="n">
-        <v>7095.86220140799</v>
+        <v>7095.85979465328</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1245,7 +1245,7 @@
         <v>990</v>
       </c>
       <c r="I27" t="n">
-        <v>2843.38839679203</v>
+        <v>2843.38715466366</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -1256,19 +1256,19 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>7153.03513099945</v>
+        <v>7153.03290467996</v>
       </c>
       <c r="C28" t="n">
-        <v>4792.92525106816</v>
+        <v>4792.92381008562</v>
       </c>
       <c r="D28" t="n">
-        <v>3863.39826035296</v>
+        <v>3863.39712124512</v>
       </c>
       <c r="E28" t="n">
-        <v>10583.2780188114</v>
+        <v>10583.2746175419</v>
       </c>
       <c r="F28" t="n">
-        <v>12978.193528029</v>
+        <v>12978.1892896656</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1277,7 +1277,7 @@
         <v>1848</v>
       </c>
       <c r="I28" t="n">
-        <v>5305.03513099945</v>
+        <v>5305.03290467996</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -1288,19 +1288,19 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>10445.3273667541</v>
+        <v>10445.3241303036</v>
       </c>
       <c r="C29" t="n">
-        <v>7056.0573072776</v>
+        <v>7056.0551953793</v>
       </c>
       <c r="D29" t="n">
-        <v>5712.98924179881</v>
+        <v>5712.98756485203</v>
       </c>
       <c r="E29" t="n">
-        <v>15334.572376918</v>
+        <v>15334.5674706461</v>
       </c>
       <c r="F29" t="n">
-        <v>18729.821548142</v>
+        <v>18729.8154585845</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1309,7 +1309,7 @@
         <v>1639</v>
       </c>
       <c r="I29" t="n">
-        <v>8806.32736675411</v>
+        <v>8806.32413030359</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1320,19 +1320,19 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>15018.266259618</v>
+        <v>15018.2614537936</v>
       </c>
       <c r="C30" t="n">
-        <v>10223.4487516755</v>
+        <v>10223.4455847043</v>
       </c>
       <c r="D30" t="n">
-        <v>8312.36822213729</v>
+        <v>8312.36569365041</v>
       </c>
       <c r="E30" t="n">
-        <v>21886.2055359721</v>
+        <v>21886.1983178712</v>
       </c>
       <c r="F30" t="n">
-        <v>26631.2917291083</v>
+        <v>26631.282812175</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1341,7 +1341,7 @@
         <v>2588</v>
       </c>
       <c r="I30" t="n">
-        <v>12430.266259618</v>
+        <v>12430.2614537936</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1352,19 +1352,19 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>15757.6419689254</v>
+        <v>15757.6370000807</v>
       </c>
       <c r="C31" t="n">
-        <v>10736.3369493507</v>
+        <v>10736.3336753428</v>
       </c>
       <c r="D31" t="n">
-        <v>8733.64009750463</v>
+        <v>8733.63748380394</v>
       </c>
       <c r="E31" t="n">
-        <v>22944.0741649518</v>
+        <v>22944.0667015715</v>
       </c>
       <c r="F31" t="n">
-        <v>27906.2717586729</v>
+        <v>27906.2625386428</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1373,7 +1373,7 @@
         <v>2896</v>
       </c>
       <c r="I31" t="n">
-        <v>12861.6419689254</v>
+        <v>12861.6370000807</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -1384,19 +1384,19 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>8616.04991213294</v>
+        <v>8616.04716766702</v>
       </c>
       <c r="C32" t="n">
-        <v>5793.19059853353</v>
+        <v>5793.18881546394</v>
       </c>
       <c r="D32" t="n">
-        <v>4678.5110181249</v>
+        <v>4678.50960565637</v>
       </c>
       <c r="E32" t="n">
-        <v>12705.8174212639</v>
+        <v>12705.8132433863</v>
       </c>
       <c r="F32" t="n">
-        <v>15554.6860925663</v>
+        <v>15554.6808959502</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1405,7 +1405,7 @@
         <v>1758</v>
       </c>
       <c r="I32" t="n">
-        <v>6858.04991213294</v>
+        <v>6858.04716766702</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -1416,19 +1416,19 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>3695.90713908652</v>
+        <v>3695.90587250574</v>
       </c>
       <c r="C33" t="n">
-        <v>2437.54797795291</v>
+        <v>2437.54716884929</v>
       </c>
       <c r="D33" t="n">
-        <v>1947.836238025</v>
+        <v>1947.83560297231</v>
       </c>
       <c r="E33" t="n">
-        <v>5551.74116580869</v>
+        <v>5551.73920612782</v>
       </c>
       <c r="F33" t="n">
-        <v>6861.05390784293</v>
+        <v>6861.05144988703</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1437,7 +1437,7 @@
         <v>940</v>
       </c>
       <c r="I33" t="n">
-        <v>2755.90713908652</v>
+        <v>2755.90587250574</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -1448,19 +1448,19 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>4951.67366626471</v>
+        <v>4951.67202591749</v>
       </c>
       <c r="C34" t="n">
-        <v>3287.63556976378</v>
+        <v>3287.63451648262</v>
       </c>
       <c r="D34" t="n">
-        <v>2636.77236403256</v>
+        <v>2636.77153501809</v>
       </c>
       <c r="E34" t="n">
-        <v>7390.7484667307</v>
+        <v>7390.74594138829</v>
       </c>
       <c r="F34" t="n">
-        <v>9103.98727632136</v>
+        <v>9103.98411703249</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1469,7 +1469,7 @@
         <v>1020</v>
       </c>
       <c r="I34" t="n">
-        <v>3931.67366626471</v>
+        <v>3931.67202591749</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -1480,19 +1480,19 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>7855.80278862564</v>
+        <v>7855.8002728595</v>
       </c>
       <c r="C35" t="n">
-        <v>5270.16823847621</v>
+        <v>5270.16660815904</v>
       </c>
       <c r="D35" t="n">
-        <v>4250.8918522951</v>
+        <v>4250.89056265095</v>
       </c>
       <c r="E35" t="n">
-        <v>11609.6513309796</v>
+        <v>11609.6474919797</v>
       </c>
       <c r="F35" t="n">
-        <v>14228.4124641676</v>
+        <v>14228.4076831871</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1501,7 +1501,7 @@
         <v>1383</v>
       </c>
       <c r="I35" t="n">
-        <v>6472.80278862564</v>
+        <v>6472.8002728595</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1512,19 +1512,19 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>14416.3198674426</v>
+        <v>14416.3155095587</v>
       </c>
       <c r="C36" t="n">
-        <v>9800.47296028702</v>
+        <v>9800.47010494413</v>
       </c>
       <c r="D36" t="n">
-        <v>7962.59099008965</v>
+        <v>7962.58871786183</v>
       </c>
       <c r="E36" t="n">
-        <v>21036.1362368149</v>
+        <v>21036.1296571877</v>
       </c>
       <c r="F36" t="n">
-        <v>25613.8814655975</v>
+        <v>25613.8733163723</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1533,7 +1533,7 @@
         <v>1896</v>
       </c>
       <c r="I36" t="n">
-        <v>12520.3198674426</v>
+        <v>12520.3155095587</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -1544,19 +1544,19 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>18362.8477807265</v>
+        <v>18362.8422870169</v>
       </c>
       <c r="C37" t="n">
-        <v>12547.8134690441</v>
+        <v>12547.8098515554</v>
       </c>
       <c r="D37" t="n">
-        <v>10223.4603571026</v>
+        <v>10223.4574705269</v>
       </c>
       <c r="E37" t="n">
-        <v>26662.9308628288</v>
+        <v>26662.9226076955</v>
       </c>
       <c r="F37" t="n">
-        <v>32383.0464529732</v>
+        <v>32383.0362534514</v>
       </c>
       <c r="G37" t="s">
         <v>10</v>
@@ -1565,7 +1565,7 @@
         <v>1026</v>
       </c>
       <c r="I37" t="n">
-        <v>17336.8477807265</v>
+        <v>17336.8422870169</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -1576,19 +1576,19 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>12521.9908990881</v>
+        <v>12521.9867491014</v>
       </c>
       <c r="C38" t="n">
-        <v>8389.35171739019</v>
+        <v>8389.3489968549</v>
       </c>
       <c r="D38" t="n">
-        <v>6761.8720847274</v>
+        <v>6761.86991836893</v>
       </c>
       <c r="E38" t="n">
-        <v>18529.1776494438</v>
+        <v>18529.1713820925</v>
       </c>
       <c r="F38" t="n">
-        <v>22723.6081219703</v>
+        <v>22723.6003564264</v>
       </c>
       <c r="G38" t="s">
         <v>10</v>
@@ -1597,7 +1597,7 @@
         <v>276</v>
       </c>
       <c r="I38" t="n">
-        <v>12245.9908990881</v>
+        <v>12245.9867491014</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -1608,19 +1608,19 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>4655.53909046216</v>
+        <v>4655.53747063929</v>
       </c>
       <c r="C39" t="n">
-        <v>3021.41244586049</v>
+        <v>3021.41140913333</v>
       </c>
       <c r="D39" t="n">
-        <v>2393.16182520859</v>
+        <v>2393.16101036977</v>
       </c>
       <c r="E39" t="n">
-        <v>7101.56189163757</v>
+        <v>7101.55938818848</v>
       </c>
       <c r="F39" t="n">
-        <v>8845.62666087117</v>
+        <v>8845.62352187418</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
@@ -1629,7 +1629,7 @@
         <v>470</v>
       </c>
       <c r="I39" t="n">
-        <v>4185.53909046216</v>
+        <v>4185.53747063929</v>
       </c>
       <c r="J39" t="s">
         <v>11</v>
@@ -1640,19 +1640,19 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>8615.31090845849</v>
+        <v>8615.30794096661</v>
       </c>
       <c r="C40" t="n">
-        <v>5636.46776911755</v>
+        <v>5636.46584568303</v>
       </c>
       <c r="D40" t="n">
-        <v>4484.23480816936</v>
+        <v>4484.23328579678</v>
       </c>
       <c r="E40" t="n">
-        <v>13041.2265355265</v>
+        <v>13041.2220037636</v>
       </c>
       <c r="F40" t="n">
-        <v>16180.3497614785</v>
+        <v>16180.3441136446</v>
       </c>
       <c r="G40" t="s">
         <v>10</v>
@@ -1661,7 +1661,7 @@
         <v>858</v>
       </c>
       <c r="I40" t="n">
-        <v>7757.31090845849</v>
+        <v>7757.30794096661</v>
       </c>
       <c r="J40" t="s">
         <v>11</v>
@@ -1672,19 +1672,19 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>12299.9271519757</v>
+        <v>12299.9227473034</v>
       </c>
       <c r="C41" t="n">
-        <v>8075.42576304832</v>
+        <v>8075.42288570533</v>
       </c>
       <c r="D41" t="n">
-        <v>6437.01511298315</v>
+        <v>6437.01282576615</v>
       </c>
       <c r="E41" t="n">
-        <v>18556.3266529151</v>
+        <v>18556.3199759418</v>
       </c>
       <c r="F41" t="n">
-        <v>22983.4876380307</v>
+        <v>22983.4793478932</v>
       </c>
       <c r="G41" t="s">
         <v>10</v>
@@ -1693,7 +1693,7 @@
         <v>1102</v>
       </c>
       <c r="I41" t="n">
-        <v>11197.9271519757</v>
+        <v>11197.9227473034</v>
       </c>
       <c r="J41" t="s">
         <v>11</v>
@@ -1704,19 +1704,19 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>18363.1462809332</v>
+        <v>18363.139686314</v>
       </c>
       <c r="C42" t="n">
-        <v>12125.5918256253</v>
+        <v>12125.5874839326</v>
       </c>
       <c r="D42" t="n">
-        <v>9695.92886446841</v>
+        <v>9695.9253983893</v>
       </c>
       <c r="E42" t="n">
-        <v>27552.1029221685</v>
+        <v>27552.0929996174</v>
       </c>
       <c r="F42" t="n">
-        <v>34029.8712389478</v>
+        <v>34029.8589658321</v>
       </c>
       <c r="G42" t="s">
         <v>10</v>
@@ -1725,7 +1725,7 @@
         <v>1898</v>
       </c>
       <c r="I42" t="n">
-        <v>16465.1462809332</v>
+        <v>16465.139686314</v>
       </c>
       <c r="J42" t="s">
         <v>11</v>
@@ -1736,19 +1736,19 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>18902.0593765874</v>
+        <v>18902.0523926913</v>
       </c>
       <c r="C43" t="n">
-        <v>12456.1654070431</v>
+        <v>12456.1608093848</v>
       </c>
       <c r="D43" t="n">
-        <v>9949.19425748428</v>
+        <v>9949.19058719113</v>
       </c>
       <c r="E43" t="n">
-        <v>28415.6958122722</v>
+        <v>28415.6853032228</v>
       </c>
       <c r="F43" t="n">
-        <v>35131.3122568557</v>
+        <v>35131.2992577817</v>
       </c>
       <c r="G43" t="s">
         <v>10</v>
@@ -1757,7 +1757,7 @@
         <v>2684</v>
       </c>
       <c r="I43" t="n">
-        <v>16218.0593765874</v>
+        <v>16218.0523926913</v>
       </c>
       <c r="J43" t="s">
         <v>11</v>
@@ -1768,19 +1768,19 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>10070.6970666906</v>
+        <v>10070.6930889745</v>
       </c>
       <c r="C44" t="n">
-        <v>6524.27690614324</v>
+        <v>6524.27432565214</v>
       </c>
       <c r="D44" t="n">
-        <v>5162.65484284521</v>
+        <v>5162.65279936738</v>
       </c>
       <c r="E44" t="n">
-        <v>15387.7527261533</v>
+        <v>15387.7466562675</v>
       </c>
       <c r="F44" t="n">
-        <v>19183.3209571247</v>
+        <v>19183.3133950986</v>
       </c>
       <c r="G44" t="s">
         <v>10</v>
@@ -1789,7 +1789,7 @@
         <v>2237</v>
       </c>
       <c r="I44" t="n">
-        <v>7833.69706669059</v>
+        <v>7833.69308897446</v>
       </c>
       <c r="J44" t="s">
         <v>11</v>
@@ -1800,19 +1800,19 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>4460.50793061546</v>
+        <v>4460.50605705919</v>
       </c>
       <c r="C45" t="n">
-        <v>2827.14936623911</v>
+        <v>2827.14817473607</v>
       </c>
       <c r="D45" t="n">
-        <v>2210.35496343727</v>
+        <v>2210.35403015735</v>
       </c>
       <c r="E45" t="n">
-        <v>6959.17732162173</v>
+        <v>6959.17440793565</v>
       </c>
       <c r="F45" t="n">
-        <v>8768.592823624</v>
+        <v>8768.58915840197</v>
       </c>
       <c r="G45" t="s">
         <v>10</v>
@@ -1821,7 +1821,7 @@
         <v>1209</v>
       </c>
       <c r="I45" t="n">
-        <v>3251.50793061546</v>
+        <v>3251.50605705919</v>
       </c>
       <c r="J45" t="s">
         <v>11</v>
@@ -1832,19 +1832,19 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>5858.5540228416</v>
+        <v>5858.55156439469</v>
       </c>
       <c r="C46" t="n">
-        <v>3734.23732815373</v>
+        <v>3734.235755463</v>
       </c>
       <c r="D46" t="n">
-        <v>2928.60923731643</v>
+        <v>2928.60800146999</v>
       </c>
       <c r="E46" t="n">
-        <v>9091.48791645268</v>
+        <v>9091.48411452079</v>
       </c>
       <c r="F46" t="n">
-        <v>11424.0190763035</v>
+        <v>11424.014307379</v>
       </c>
       <c r="G46" t="s">
         <v>10</v>
@@ -1853,7 +1853,7 @@
         <v>1546</v>
       </c>
       <c r="I46" t="n">
-        <v>4312.5540228416</v>
+        <v>4312.55156439469</v>
       </c>
       <c r="J46" t="s">
         <v>11</v>
@@ -1864,19 +1864,19 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>8900.35158547343</v>
+        <v>8900.34779993821</v>
       </c>
       <c r="C47" t="n">
-        <v>5727.02631158849</v>
+        <v>5727.02386597733</v>
       </c>
       <c r="D47" t="n">
-        <v>4514.90535679912</v>
+        <v>4514.90342456768</v>
       </c>
       <c r="E47" t="n">
-        <v>13687.87869718</v>
+        <v>13687.8728976434</v>
       </c>
       <c r="F47" t="n">
-        <v>17120.7031246842</v>
+        <v>17120.6958848744</v>
       </c>
       <c r="G47" t="s">
         <v>10</v>
@@ -1885,7 +1885,7 @@
         <v>2533</v>
       </c>
       <c r="I47" t="n">
-        <v>6367.35158547343</v>
+        <v>6367.34779993821</v>
       </c>
       <c r="J47" t="s">
         <v>11</v>
@@ -1896,19 +1896,19 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>15853.4891388348</v>
+        <v>15853.482570013</v>
       </c>
       <c r="C48" t="n">
-        <v>10337.6879325052</v>
+        <v>10337.6836343088</v>
       </c>
       <c r="D48" t="n">
-        <v>8209.48141700945</v>
+        <v>8209.47799721582</v>
       </c>
       <c r="E48" t="n">
-        <v>24073.7959363064</v>
+        <v>24073.7859943806</v>
       </c>
       <c r="F48" t="n">
-        <v>29916.8269722851</v>
+        <v>29916.8146382467</v>
       </c>
       <c r="G48" t="s">
         <v>10</v>
@@ -1917,7 +1917,7 @@
         <v>4637</v>
       </c>
       <c r="I48" t="n">
-        <v>11216.4891388348</v>
+        <v>11216.482570013</v>
       </c>
       <c r="J48" t="s">
         <v>11</v>
@@ -1928,19 +1928,19 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>20248.5399436474</v>
+        <v>20248.5316331256</v>
       </c>
       <c r="C49" t="n">
-        <v>13273.5658172003</v>
+        <v>13273.5603515402</v>
       </c>
       <c r="D49" t="n">
-        <v>10571.5739673981</v>
+        <v>10571.5696065387</v>
       </c>
       <c r="E49" t="n">
-        <v>30593.0023108238</v>
+        <v>30592.9897939499</v>
       </c>
       <c r="F49" t="n">
-        <v>37920.3862746002</v>
+        <v>37920.3707846853</v>
       </c>
       <c r="G49" t="s">
         <v>10</v>
@@ -1949,7 +1949,7 @@
         <v>5826</v>
       </c>
       <c r="I49" t="n">
-        <v>14422.5399436474</v>
+        <v>14422.5316331256</v>
       </c>
       <c r="J49" t="s">
         <v>11</v>

--- a/outcome/appendix/forecast/Scarlet fever.xlsx
+++ b/outcome/appendix/forecast/Scarlet fever.xlsx
@@ -424,19 +424,19 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>8590.57953632247</v>
+        <v>8590.31878731392</v>
       </c>
       <c r="C2" t="n">
-        <v>7121.02818047126</v>
+        <v>7120.65008452266</v>
       </c>
       <c r="D2" t="n">
-        <v>6442.67083130716</v>
+        <v>6442.26572676501</v>
       </c>
       <c r="E2" t="n">
-        <v>10343.4909925406</v>
+        <v>10343.4746120976</v>
       </c>
       <c r="F2" t="n">
-        <v>11403.1704868412</v>
+        <v>11403.355478134</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -445,7 +445,7 @@
         <v>6352</v>
       </c>
       <c r="I2" t="n">
-        <v>2238.57953632247</v>
+        <v>2238.31878731392</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -456,19 +456,19 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>3578.1347088125</v>
+        <v>3577.83605372011</v>
       </c>
       <c r="C3" t="n">
-        <v>2753.58274417003</v>
+        <v>2753.33533064878</v>
       </c>
       <c r="D3" t="n">
-        <v>2393.34646369897</v>
+        <v>2393.12097510818</v>
       </c>
       <c r="E3" t="n">
-        <v>4632.27170476099</v>
+        <v>4631.92390747328</v>
       </c>
       <c r="F3" t="n">
-        <v>5302.9228079539</v>
+        <v>5302.55966773974</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -477,7 +477,7 @@
         <v>580</v>
       </c>
       <c r="I3" t="n">
-        <v>2998.1347088125</v>
+        <v>2997.83605372011</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -488,19 +488,19 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>6668.24239234309</v>
+        <v>6667.77858386649</v>
       </c>
       <c r="C4" t="n">
-        <v>4979.13146205966</v>
+        <v>4978.69624742405</v>
       </c>
       <c r="D4" t="n">
-        <v>4257.57180022229</v>
+        <v>4257.17591087499</v>
       </c>
       <c r="E4" t="n">
-        <v>8889.0711063671</v>
+        <v>8888.72089059251</v>
       </c>
       <c r="F4" t="n">
-        <v>10331.2325354305</v>
+        <v>10331.049685079</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -509,7 +509,7 @@
         <v>444</v>
       </c>
       <c r="I4" t="n">
-        <v>6224.24239234309</v>
+        <v>6223.77858386649</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -520,19 +520,19 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>9351.03487391801</v>
+        <v>9350.7834780346</v>
       </c>
       <c r="C5" t="n">
-        <v>6839.23919857167</v>
+        <v>6838.83067578255</v>
       </c>
       <c r="D5" t="n">
-        <v>5782.70868902786</v>
+        <v>5782.29902819753</v>
       </c>
       <c r="E5" t="n">
-        <v>12717.6197954555</v>
+        <v>12717.9180053421</v>
       </c>
       <c r="F5" t="n">
-        <v>14934.6129398948</v>
+        <v>14935.4739456696</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -541,7 +541,7 @@
         <v>442</v>
       </c>
       <c r="I5" t="n">
-        <v>8909.03487391801</v>
+        <v>8908.7834780346</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -552,19 +552,19 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>14722.082057964</v>
+        <v>14722.2015835566</v>
       </c>
       <c r="C6" t="n">
-        <v>10657.0468831544</v>
+        <v>10656.4806177822</v>
       </c>
       <c r="D6" t="n">
-        <v>8960.32473066616</v>
+        <v>8959.63300720713</v>
       </c>
       <c r="E6" t="n">
-        <v>20222.8632558841</v>
+        <v>20224.6998162506</v>
       </c>
       <c r="F6" t="n">
-        <v>23870.5332800852</v>
+        <v>23873.9557228852</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -573,7 +573,7 @@
         <v>562</v>
       </c>
       <c r="I6" t="n">
-        <v>14160.082057964</v>
+        <v>14160.2015835566</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -584,19 +584,19 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>14836.3416586993</v>
+        <v>14836.4822250864</v>
       </c>
       <c r="C7" t="n">
-        <v>10600.7079695827</v>
+        <v>10600.1488691373</v>
       </c>
       <c r="D7" t="n">
-        <v>8849.94924002133</v>
+        <v>8849.27125581687</v>
       </c>
       <c r="E7" t="n">
-        <v>20637.6085477404</v>
+        <v>20639.5684572358</v>
       </c>
       <c r="F7" t="n">
-        <v>24518.3472422032</v>
+        <v>24522.018910245</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -605,7 +605,7 @@
         <v>677</v>
       </c>
       <c r="I7" t="n">
-        <v>14159.3416586993</v>
+        <v>14159.4822250864</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -616,19 +616,19 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>7550.15536568543</v>
+        <v>7549.84227996266</v>
       </c>
       <c r="C8" t="n">
-        <v>5272.08441636402</v>
+        <v>5271.76675273377</v>
       </c>
       <c r="D8" t="n">
-        <v>4346.56478885668</v>
+        <v>4346.28816264051</v>
       </c>
       <c r="E8" t="n">
-        <v>10737.3643868215</v>
+        <v>10737.3419521292</v>
       </c>
       <c r="F8" t="n">
-        <v>12902.4645628356</v>
+        <v>12902.8280148635</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -637,7 +637,7 @@
         <v>763</v>
       </c>
       <c r="I8" t="n">
-        <v>6787.15536568543</v>
+        <v>6786.84227996266</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -648,19 +648,19 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>3395.84301846091</v>
+        <v>3395.60668085945</v>
       </c>
       <c r="C9" t="n">
-        <v>2314.49355282695</v>
+        <v>2314.33600995959</v>
       </c>
       <c r="D9" t="n">
-        <v>1883.1009086456</v>
+        <v>1882.9640423425</v>
       </c>
       <c r="E9" t="n">
-        <v>4942.98549580286</v>
+        <v>4942.64564636444</v>
       </c>
       <c r="F9" t="n">
-        <v>6011.04595584846</v>
+        <v>6010.66667238612</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -669,7 +669,7 @@
         <v>763</v>
       </c>
       <c r="I9" t="n">
-        <v>2632.84301846091</v>
+        <v>2632.60668085945</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -680,19 +680,19 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>4392.76055639318</v>
+        <v>4392.44123127066</v>
       </c>
       <c r="C10" t="n">
-        <v>2992.94872571311</v>
+        <v>2992.73915690808</v>
       </c>
       <c r="D10" t="n">
-        <v>2434.65095683657</v>
+        <v>2434.48386958312</v>
       </c>
       <c r="E10" t="n">
-        <v>6396.16810422271</v>
+        <v>6395.75934797151</v>
       </c>
       <c r="F10" t="n">
-        <v>7779.51825867515</v>
+        <v>7779.11693312955</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -701,7 +701,7 @@
         <v>877</v>
       </c>
       <c r="I10" t="n">
-        <v>3515.76055639318</v>
+        <v>3515.44123127066</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -712,19 +712,19 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>6411.46511503291</v>
+        <v>6411.22214890756</v>
       </c>
       <c r="C11" t="n">
-        <v>4384.70143511113</v>
+        <v>4384.50299999997</v>
       </c>
       <c r="D11" t="n">
-        <v>3574.07639279365</v>
+        <v>3573.92044705538</v>
       </c>
       <c r="E11" t="n">
-        <v>9302.18241704221</v>
+        <v>9302.08773628277</v>
       </c>
       <c r="F11" t="n">
-        <v>11293.2795780111</v>
+        <v>11293.4422568459</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -733,7 +733,7 @@
         <v>1102</v>
       </c>
       <c r="I11" t="n">
-        <v>5309.46511503291</v>
+        <v>5309.22214890756</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -744,19 +744,19 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>11194.8217025497</v>
+        <v>11194.97639601</v>
       </c>
       <c r="C12" t="n">
-        <v>7721.31868761857</v>
+        <v>7721.12181576861</v>
       </c>
       <c r="D12" t="n">
-        <v>6323.14000711503</v>
+        <v>6322.90918387282</v>
       </c>
       <c r="E12" t="n">
-        <v>16110.2275334528</v>
+        <v>16111.5132405996</v>
       </c>
       <c r="F12" t="n">
-        <v>19476.8352348919</v>
+        <v>19479.2895281483</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -765,7 +765,7 @@
         <v>1925</v>
       </c>
       <c r="I12" t="n">
-        <v>9269.82170254972</v>
+        <v>9269.97639601</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -776,19 +776,19 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>14433.05955765</v>
+        <v>14433.5653824503</v>
       </c>
       <c r="C13" t="n">
-        <v>9983.62344499618</v>
+        <v>9983.39720619023</v>
       </c>
       <c r="D13" t="n">
-        <v>8188.70702329368</v>
+        <v>8188.35997081816</v>
       </c>
       <c r="E13" t="n">
-        <v>20712.7212190889</v>
+        <v>20715.2232339532</v>
       </c>
       <c r="F13" t="n">
-        <v>25005.4537145991</v>
+        <v>25009.8969628089</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -797,7 +797,7 @@
         <v>2693</v>
       </c>
       <c r="I13" t="n">
-        <v>11740.05955765</v>
+        <v>11740.5653824503</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -808,19 +808,19 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>9916.01472881047</v>
+        <v>9916.07166086039</v>
       </c>
       <c r="C14" t="n">
-        <v>6779.4199273531</v>
+        <v>6779.25295773246</v>
       </c>
       <c r="D14" t="n">
-        <v>5525.18345965935</v>
+        <v>5525.01096756418</v>
       </c>
       <c r="E14" t="n">
-        <v>14390.8657196936</v>
+        <v>14391.7708483403</v>
       </c>
       <c r="F14" t="n">
-        <v>17473.6986377861</v>
+        <v>17475.5280908285</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -829,7 +829,7 @@
         <v>2502</v>
       </c>
       <c r="I14" t="n">
-        <v>7414.01472881047</v>
+        <v>7414.07166086039</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -840,19 +840,19 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>3516.83465544716</v>
+        <v>3516.62759287962</v>
       </c>
       <c r="C15" t="n">
-        <v>2343.26607664103</v>
+        <v>2343.14352391882</v>
       </c>
       <c r="D15" t="n">
-        <v>1883.01348021445</v>
+        <v>1882.91100049191</v>
       </c>
       <c r="E15" t="n">
-        <v>5231.39273464322</v>
+        <v>5231.07294553359</v>
       </c>
       <c r="F15" t="n">
-        <v>6432.90977668453</v>
+        <v>6432.55082367599</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -861,7 +861,7 @@
         <v>989</v>
       </c>
       <c r="I15" t="n">
-        <v>2527.83465544716</v>
+        <v>2527.62759287962</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -872,19 +872,19 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>6334.79405483016</v>
+        <v>6334.53388228476</v>
       </c>
       <c r="C16" t="n">
-        <v>4266.85337647878</v>
+        <v>4266.6589713801</v>
       </c>
       <c r="D16" t="n">
-        <v>3449.18673942181</v>
+        <v>3449.04101704157</v>
       </c>
       <c r="E16" t="n">
-        <v>9325.9633660148</v>
+        <v>9325.82573060805</v>
       </c>
       <c r="F16" t="n">
-        <v>11407.1364819077</v>
+        <v>11407.2494239571</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -893,7 +893,7 @@
         <v>1819</v>
       </c>
       <c r="I16" t="n">
-        <v>4515.79405483016</v>
+        <v>4515.53388228476</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -904,19 +904,19 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>9911.4408246223</v>
+        <v>9911.29448557028</v>
       </c>
       <c r="C17" t="n">
-        <v>6729.94921337598</v>
+        <v>6729.64578362719</v>
       </c>
       <c r="D17" t="n">
-        <v>5464.31846614596</v>
+        <v>5464.03790336341</v>
       </c>
       <c r="E17" t="n">
-        <v>14479.200689049</v>
+        <v>14479.8277354245</v>
       </c>
       <c r="F17" t="n">
-        <v>17640.4021694223</v>
+        <v>17641.9195857237</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -925,7 +925,7 @@
         <v>2790</v>
       </c>
       <c r="I17" t="n">
-        <v>7121.4408246223</v>
+        <v>7121.29448557028</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -936,19 +936,19 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>15574.6028254266</v>
+        <v>15574.7027504214</v>
       </c>
       <c r="C18" t="n">
-        <v>10664.3490767047</v>
+        <v>10663.7266932359</v>
       </c>
       <c r="D18" t="n">
-        <v>8698.62150350501</v>
+        <v>8697.9173009591</v>
       </c>
       <c r="E18" t="n">
-        <v>22570.0034033257</v>
+        <v>22572.2877530763</v>
       </c>
       <c r="F18" t="n">
-        <v>27384.4275505775</v>
+        <v>27388.908184033</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -957,7 +957,7 @@
         <v>4124</v>
       </c>
       <c r="I18" t="n">
-        <v>11450.6028254266</v>
+        <v>11450.7027504214</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -968,19 +968,19 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>15643.1582118366</v>
+        <v>15643.391417699</v>
       </c>
       <c r="C19" t="n">
-        <v>10702.1091732963</v>
+        <v>10701.5743709736</v>
       </c>
       <c r="D19" t="n">
-        <v>8725.32989132639</v>
+        <v>8724.69689138177</v>
       </c>
       <c r="E19" t="n">
-        <v>22688.0098349121</v>
+        <v>22690.5050255657</v>
       </c>
       <c r="F19" t="n">
-        <v>27539.2298360197</v>
+        <v>27543.9830155414</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -989,7 +989,7 @@
         <v>4165</v>
       </c>
       <c r="I19" t="n">
-        <v>11478.1582118366</v>
+        <v>11478.391417699</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -1000,19 +1000,19 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>7990.1071196533</v>
+        <v>7989.88543073808</v>
       </c>
       <c r="C20" t="n">
-        <v>5383.63495176952</v>
+        <v>5383.40034779582</v>
       </c>
       <c r="D20" t="n">
-        <v>4352.76772369593</v>
+        <v>4352.57772583042</v>
       </c>
       <c r="E20" t="n">
-        <v>11759.0506918163</v>
+        <v>11759.2162460606</v>
       </c>
       <c r="F20" t="n">
-        <v>14380.7871646742</v>
+        <v>14381.4773116989</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1021,7 +1021,7 @@
         <v>2430</v>
       </c>
       <c r="I20" t="n">
-        <v>5560.1071196533</v>
+        <v>5559.88543073808</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -1032,19 +1032,19 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>3500.53707549114</v>
+        <v>3500.32112509647</v>
       </c>
       <c r="C21" t="n">
-        <v>2313.73891459106</v>
+        <v>2313.61446761208</v>
       </c>
       <c r="D21" t="n">
-        <v>1851.11424162203</v>
+        <v>1851.01106809695</v>
       </c>
       <c r="E21" t="n">
-        <v>5247.31663375547</v>
+        <v>5246.97407315593</v>
       </c>
       <c r="F21" t="n">
-        <v>6477.91976288487</v>
+        <v>6477.52868373074</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1053,7 +1053,7 @@
         <v>1152</v>
       </c>
       <c r="I21" t="n">
-        <v>2348.53707549114</v>
+        <v>2348.32112509647</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -1064,19 +1064,19 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>4415.57068576347</v>
+        <v>4415.34032220462</v>
       </c>
       <c r="C22" t="n">
-        <v>2932.83165475923</v>
+        <v>2932.70246594199</v>
       </c>
       <c r="D22" t="n">
-        <v>2352.71072680894</v>
+        <v>2352.61651393843</v>
       </c>
       <c r="E22" t="n">
-        <v>6588.12726529919</v>
+        <v>6587.81794756166</v>
       </c>
       <c r="F22" t="n">
-        <v>8113.76921141348</v>
+        <v>8113.48366012168</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1085,7 +1085,7 @@
         <v>1202</v>
       </c>
       <c r="I22" t="n">
-        <v>3213.57068576347</v>
+        <v>3213.34032220462</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -1096,19 +1096,19 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>7235.52003086938</v>
+        <v>7235.31442702887</v>
       </c>
       <c r="C23" t="n">
-        <v>4857.98812221493</v>
+        <v>4857.80329587796</v>
       </c>
       <c r="D23" t="n">
-        <v>3920.17282681943</v>
+        <v>3920.03265889598</v>
       </c>
       <c r="E23" t="n">
-        <v>10684.6572741532</v>
+        <v>10684.7216528143</v>
       </c>
       <c r="F23" t="n">
-        <v>13089.5533655827</v>
+        <v>13090.022539167</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1117,7 +1117,7 @@
         <v>1634</v>
       </c>
       <c r="I23" t="n">
-        <v>5601.52003086938</v>
+        <v>5601.31442702887</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -1128,19 +1128,19 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>13065.9079742133</v>
+        <v>13066.244190335</v>
       </c>
       <c r="C24" t="n">
-        <v>8884.47195658153</v>
+        <v>8884.26118702681</v>
       </c>
       <c r="D24" t="n">
-        <v>7219.27134918779</v>
+        <v>7218.99328209991</v>
       </c>
       <c r="E24" t="n">
-        <v>19061.4467996065</v>
+        <v>19063.4536638721</v>
       </c>
       <c r="F24" t="n">
-        <v>23206.8614093431</v>
+        <v>23210.5715253473</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1149,7 +1149,7 @@
         <v>2717</v>
       </c>
       <c r="I24" t="n">
-        <v>10348.9079742133</v>
+        <v>10349.244190335</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -1160,19 +1160,19 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>16680.4885868234</v>
+        <v>16681.285950833</v>
       </c>
       <c r="C25" t="n">
-        <v>11399.5362214433</v>
+        <v>11399.2925924303</v>
       </c>
       <c r="D25" t="n">
-        <v>9288.47892898207</v>
+        <v>9288.05246478362</v>
       </c>
       <c r="E25" t="n">
-        <v>24217.442504548</v>
+        <v>24221.0194012799</v>
       </c>
       <c r="F25" t="n">
-        <v>29411.2370444323</v>
+        <v>29417.5022251412</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1181,7 +1181,7 @@
         <v>3983</v>
       </c>
       <c r="I25" t="n">
-        <v>12697.4885868234</v>
+        <v>12698.285950833</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
@@ -1192,19 +1192,19 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>11624.642379713</v>
+        <v>11624.7726688784</v>
       </c>
       <c r="C26" t="n">
-        <v>7878.73839332712</v>
+        <v>7878.50074348745</v>
       </c>
       <c r="D26" t="n">
-        <v>6390.64007590591</v>
+        <v>6390.37715339181</v>
       </c>
       <c r="E26" t="n">
-        <v>17011.8756164624</v>
+        <v>17013.2740533267</v>
       </c>
       <c r="F26" t="n">
-        <v>20744.7519671853</v>
+        <v>20747.4954852292</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1213,7 +1213,7 @@
         <v>3232</v>
       </c>
       <c r="I26" t="n">
-        <v>8392.64237971304</v>
+        <v>8392.77266887843</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -1224,19 +1224,19 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>3833.38715466366</v>
+        <v>3833.25891767003</v>
       </c>
       <c r="C27" t="n">
-        <v>2533.25138938665</v>
+        <v>2533.18773753288</v>
       </c>
       <c r="D27" t="n">
-        <v>2026.52080764822</v>
+        <v>2026.47125688823</v>
       </c>
       <c r="E27" t="n">
-        <v>5747.32319728832</v>
+        <v>5747.13044857938</v>
       </c>
       <c r="F27" t="n">
-        <v>7095.85979465328</v>
+        <v>7095.67715274554</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1245,7 +1245,7 @@
         <v>990</v>
       </c>
       <c r="I27" t="n">
-        <v>2843.38715466366</v>
+        <v>2843.25891767003</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -1256,19 +1256,19 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>7153.03290467996</v>
+        <v>7152.9402085794</v>
       </c>
       <c r="C28" t="n">
-        <v>4792.92381008562</v>
+        <v>4792.81205908473</v>
       </c>
       <c r="D28" t="n">
-        <v>3863.39712124512</v>
+        <v>3863.31401673248</v>
       </c>
       <c r="E28" t="n">
-        <v>10583.2746175419</v>
+        <v>10583.5094573121</v>
       </c>
       <c r="F28" t="n">
-        <v>12978.1892896656</v>
+        <v>12978.8697333491</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1277,7 +1277,7 @@
         <v>1848</v>
       </c>
       <c r="I28" t="n">
-        <v>5305.03290467996</v>
+        <v>5304.9402085794</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -1288,19 +1288,19 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>10445.3241303036</v>
+        <v>10445.4311502114</v>
       </c>
       <c r="C29" t="n">
-        <v>7056.0551953793</v>
+        <v>7055.88203690674</v>
       </c>
       <c r="D29" t="n">
-        <v>5712.98756485203</v>
+        <v>5712.8015060079</v>
       </c>
       <c r="E29" t="n">
-        <v>15334.5674706461</v>
+        <v>15335.703207592</v>
       </c>
       <c r="F29" t="n">
-        <v>18729.8154585845</v>
+        <v>18732.0680391384</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1309,7 +1309,7 @@
         <v>1639</v>
       </c>
       <c r="I29" t="n">
-        <v>8806.32413030359</v>
+        <v>8806.43115021144</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1320,19 +1320,19 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>15018.2614537936</v>
+        <v>15018.8783622137</v>
       </c>
       <c r="C30" t="n">
-        <v>10223.4455847043</v>
+        <v>10223.2210995972</v>
       </c>
       <c r="D30" t="n">
-        <v>8312.36569365041</v>
+        <v>8312.00466784494</v>
       </c>
       <c r="E30" t="n">
-        <v>21886.1983178712</v>
+        <v>21889.149272962</v>
       </c>
       <c r="F30" t="n">
-        <v>26631.282812175</v>
+        <v>26636.5295934711</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1341,7 +1341,7 @@
         <v>2588</v>
       </c>
       <c r="I30" t="n">
-        <v>12430.2614537936</v>
+        <v>12430.8783622137</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1352,19 +1352,19 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>15757.6370000807</v>
+        <v>15758.3653640076</v>
       </c>
       <c r="C31" t="n">
-        <v>10736.3336753428</v>
+        <v>10736.1088731742</v>
       </c>
       <c r="D31" t="n">
-        <v>8733.63748380394</v>
+        <v>8733.24909137608</v>
       </c>
       <c r="E31" t="n">
-        <v>22944.0667015715</v>
+        <v>22947.375561747</v>
       </c>
       <c r="F31" t="n">
-        <v>27906.2625386428</v>
+        <v>27912.0846564851</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1373,7 +1373,7 @@
         <v>2896</v>
       </c>
       <c r="I31" t="n">
-        <v>12861.6370000807</v>
+        <v>12862.3653640076</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -1384,19 +1384,19 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>8616.04716766702</v>
+        <v>8615.99783763012</v>
       </c>
       <c r="C32" t="n">
-        <v>5793.18881546394</v>
+        <v>5793.02620587267</v>
       </c>
       <c r="D32" t="n">
-        <v>4678.50960565637</v>
+        <v>4678.36532474212</v>
       </c>
       <c r="E32" t="n">
-        <v>12705.8132433863</v>
+        <v>12706.3713533467</v>
       </c>
       <c r="F32" t="n">
-        <v>15554.6808959502</v>
+        <v>15555.9618681593</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1405,7 +1405,7 @@
         <v>1758</v>
       </c>
       <c r="I32" t="n">
-        <v>6858.04716766702</v>
+        <v>6857.99783763012</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -1416,19 +1416,19 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>3695.90587250574</v>
+        <v>3695.77030846772</v>
       </c>
       <c r="C33" t="n">
-        <v>2437.54716884929</v>
+        <v>2437.47376836697</v>
       </c>
       <c r="D33" t="n">
-        <v>1947.83560297231</v>
+        <v>1947.77437144063</v>
       </c>
       <c r="E33" t="n">
-        <v>5551.73920612782</v>
+        <v>5551.53625294736</v>
       </c>
       <c r="F33" t="n">
-        <v>6861.05144988703</v>
+        <v>6860.85255181294</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1437,7 +1437,7 @@
         <v>940</v>
       </c>
       <c r="I33" t="n">
-        <v>2755.90587250574</v>
+        <v>2755.77030846772</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -1448,19 +1448,19 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>4951.67202591749</v>
+        <v>4951.50868447095</v>
       </c>
       <c r="C34" t="n">
-        <v>3287.63451648262</v>
+        <v>3287.53762723572</v>
       </c>
       <c r="D34" t="n">
-        <v>2636.77153501809</v>
+        <v>2636.70380914289</v>
       </c>
       <c r="E34" t="n">
-        <v>7390.74594138829</v>
+        <v>7390.60135690495</v>
       </c>
       <c r="F34" t="n">
-        <v>9103.98411703249</v>
+        <v>9103.96103907328</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1469,7 +1469,7 @@
         <v>1020</v>
       </c>
       <c r="I34" t="n">
-        <v>3931.67202591749</v>
+        <v>3931.50868447095</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -1480,19 +1480,19 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>7855.8002728595</v>
+        <v>7855.67903908861</v>
       </c>
       <c r="C35" t="n">
-        <v>5270.16660815904</v>
+        <v>5269.99579750926</v>
       </c>
       <c r="D35" t="n">
-        <v>4250.89056265095</v>
+        <v>4250.74962988136</v>
       </c>
       <c r="E35" t="n">
-        <v>11609.6474919797</v>
+        <v>11609.9695672531</v>
       </c>
       <c r="F35" t="n">
-        <v>14228.4076831871</v>
+        <v>14229.29744696</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1501,7 +1501,7 @@
         <v>1383</v>
       </c>
       <c r="I35" t="n">
-        <v>6472.8002728595</v>
+        <v>6472.67903908861</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1512,19 +1512,19 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>14416.3155095587</v>
+        <v>14416.8052126169</v>
       </c>
       <c r="C36" t="n">
-        <v>9800.47010494413</v>
+        <v>9800.21095707031</v>
       </c>
       <c r="D36" t="n">
-        <v>7962.58871786183</v>
+        <v>7962.21744148184</v>
       </c>
       <c r="E36" t="n">
-        <v>21036.1296571877</v>
+        <v>21038.7601159022</v>
       </c>
       <c r="F36" t="n">
-        <v>25613.8733163723</v>
+        <v>25618.6333799584</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1533,7 +1533,7 @@
         <v>1896</v>
       </c>
       <c r="I36" t="n">
-        <v>12520.3155095587</v>
+        <v>12520.8052126169</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -1544,19 +1544,19 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>18362.8422870169</v>
+        <v>18363.905697455</v>
       </c>
       <c r="C37" t="n">
-        <v>12547.8098515554</v>
+        <v>12547.5259445858</v>
       </c>
       <c r="D37" t="n">
-        <v>10223.4574705269</v>
+        <v>10222.9162859258</v>
       </c>
       <c r="E37" t="n">
-        <v>26662.9226076955</v>
+        <v>26667.4410098132</v>
       </c>
       <c r="F37" t="n">
-        <v>32383.0362534514</v>
+        <v>32390.8400521951</v>
       </c>
       <c r="G37" t="s">
         <v>10</v>
@@ -1565,7 +1565,7 @@
         <v>1026</v>
       </c>
       <c r="I37" t="n">
-        <v>17336.8422870169</v>
+        <v>17337.905697455</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -1576,19 +1576,19 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>12521.9867491014</v>
+        <v>12522.0785259129</v>
       </c>
       <c r="C38" t="n">
-        <v>8389.3489968549</v>
+        <v>8388.96957778694</v>
       </c>
       <c r="D38" t="n">
-        <v>6761.86991836893</v>
+        <v>6761.45633437411</v>
       </c>
       <c r="E38" t="n">
-        <v>18529.1713820925</v>
+        <v>18530.8710930978</v>
       </c>
       <c r="F38" t="n">
-        <v>22723.6003564264</v>
+        <v>22727.0019675018</v>
       </c>
       <c r="G38" t="s">
         <v>10</v>
@@ -1597,7 +1597,7 @@
         <v>276</v>
       </c>
       <c r="I38" t="n">
-        <v>12245.9867491014</v>
+        <v>12246.0785259129</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -1608,19 +1608,19 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>4655.53747063929</v>
+        <v>4655.18161992598</v>
       </c>
       <c r="C39" t="n">
-        <v>3021.41140913333</v>
+        <v>3021.18333982109</v>
       </c>
       <c r="D39" t="n">
-        <v>2393.16101036977</v>
+        <v>2392.98223210264</v>
       </c>
       <c r="E39" t="n">
-        <v>7101.55938818848</v>
+        <v>7101.12654235383</v>
       </c>
       <c r="F39" t="n">
-        <v>8845.62352187418</v>
+        <v>8845.25020906672</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
@@ -1629,7 +1629,7 @@
         <v>470</v>
       </c>
       <c r="I39" t="n">
-        <v>4185.53747063929</v>
+        <v>4185.18161992598</v>
       </c>
       <c r="J39" t="s">
         <v>11</v>
@@ -1640,19 +1640,19 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>8615.30794096661</v>
+        <v>8614.92596994308</v>
       </c>
       <c r="C40" t="n">
-        <v>5636.46584568303</v>
+        <v>5636.05846706469</v>
       </c>
       <c r="D40" t="n">
-        <v>4484.23328579678</v>
+        <v>4483.88772462668</v>
       </c>
       <c r="E40" t="n">
-        <v>13041.2220037636</v>
+        <v>13041.4108755313</v>
       </c>
       <c r="F40" t="n">
-        <v>16180.3441136446</v>
+        <v>16181.3057249887</v>
       </c>
       <c r="G40" t="s">
         <v>10</v>
@@ -1661,7 +1661,7 @@
         <v>858</v>
       </c>
       <c r="I40" t="n">
-        <v>7757.30794096661</v>
+        <v>7756.92596994308</v>
       </c>
       <c r="J40" t="s">
         <v>11</v>
@@ -1672,19 +1672,19 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>12299.9227473034</v>
+        <v>12300.0417728992</v>
       </c>
       <c r="C41" t="n">
-        <v>8075.42288570533</v>
+        <v>8075.05968046397</v>
       </c>
       <c r="D41" t="n">
-        <v>6437.01282576615</v>
+        <v>6436.61984355574</v>
       </c>
       <c r="E41" t="n">
-        <v>18556.3199759418</v>
+        <v>18558.1602265122</v>
       </c>
       <c r="F41" t="n">
-        <v>22983.4793478932</v>
+        <v>22987.1826319035</v>
       </c>
       <c r="G41" t="s">
         <v>10</v>
@@ -1693,7 +1693,7 @@
         <v>1102</v>
       </c>
       <c r="I41" t="n">
-        <v>11197.9227473034</v>
+        <v>11198.0417728992</v>
       </c>
       <c r="J41" t="s">
         <v>11</v>
@@ -1704,19 +1704,19 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>18363.139686314</v>
+        <v>18364.3236052711</v>
       </c>
       <c r="C42" t="n">
-        <v>12125.5874839326</v>
+        <v>12125.278538423</v>
       </c>
       <c r="D42" t="n">
-        <v>9695.9253983893</v>
+        <v>9695.35706498686</v>
       </c>
       <c r="E42" t="n">
-        <v>27552.0929996174</v>
+        <v>27557.3558388611</v>
       </c>
       <c r="F42" t="n">
-        <v>34029.8589658321</v>
+        <v>34039.1386856058</v>
       </c>
       <c r="G42" t="s">
         <v>10</v>
@@ -1725,7 +1725,7 @@
         <v>1898</v>
       </c>
       <c r="I42" t="n">
-        <v>16465.139686314</v>
+        <v>16466.3236052711</v>
       </c>
       <c r="J42" t="s">
         <v>11</v>
@@ -1736,19 +1736,19 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>18902.0523926913</v>
+        <v>18903.3243204229</v>
       </c>
       <c r="C43" t="n">
-        <v>12456.1608093848</v>
+        <v>12455.8400420586</v>
       </c>
       <c r="D43" t="n">
-        <v>9949.19058719113</v>
+        <v>9948.59077663506</v>
       </c>
       <c r="E43" t="n">
-        <v>28415.6853032228</v>
+        <v>28421.294642536</v>
       </c>
       <c r="F43" t="n">
-        <v>35131.2992577817</v>
+        <v>35141.1757610774</v>
       </c>
       <c r="G43" t="s">
         <v>10</v>
@@ -1757,7 +1757,7 @@
         <v>2684</v>
       </c>
       <c r="I43" t="n">
-        <v>16218.0523926913</v>
+        <v>16219.3243204229</v>
       </c>
       <c r="J43" t="s">
         <v>11</v>
@@ -1768,19 +1768,19 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>10070.6930889745</v>
+        <v>10070.5392649277</v>
       </c>
       <c r="C44" t="n">
-        <v>6524.27432565214</v>
+        <v>6523.91759795233</v>
       </c>
       <c r="D44" t="n">
-        <v>5162.65279936738</v>
+        <v>5162.32467463555</v>
       </c>
       <c r="E44" t="n">
-        <v>15387.7466562675</v>
+        <v>15388.6515899911</v>
       </c>
       <c r="F44" t="n">
-        <v>19183.3133950986</v>
+        <v>19185.4817547704</v>
       </c>
       <c r="G44" t="s">
         <v>10</v>
@@ -1789,7 +1789,7 @@
         <v>2237</v>
       </c>
       <c r="I44" t="n">
-        <v>7833.69308897446</v>
+        <v>7833.53926492771</v>
       </c>
       <c r="J44" t="s">
         <v>11</v>
@@ -1800,19 +1800,19 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>4460.50605705919</v>
+        <v>4460.19630458183</v>
       </c>
       <c r="C45" t="n">
-        <v>2827.14817473607</v>
+        <v>2826.95611769529</v>
       </c>
       <c r="D45" t="n">
-        <v>2210.35403015735</v>
+        <v>2210.20259513508</v>
       </c>
       <c r="E45" t="n">
-        <v>6959.17440793565</v>
+        <v>6958.79471014591</v>
       </c>
       <c r="F45" t="n">
-        <v>8768.58915840197</v>
+        <v>8768.28008798439</v>
       </c>
       <c r="G45" t="s">
         <v>10</v>
@@ -1821,7 +1821,7 @@
         <v>1209</v>
       </c>
       <c r="I45" t="n">
-        <v>3251.50605705919</v>
+        <v>3251.19630458183</v>
       </c>
       <c r="J45" t="s">
         <v>11</v>
@@ -1832,19 +1832,19 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>5858.55156439469</v>
+        <v>5858.16076944898</v>
       </c>
       <c r="C46" t="n">
-        <v>3734.235755463</v>
+        <v>3733.96308740774</v>
       </c>
       <c r="D46" t="n">
-        <v>2928.60800146999</v>
+        <v>2928.39894802893</v>
       </c>
       <c r="E46" t="n">
-        <v>9091.48411452079</v>
+        <v>9091.16779362158</v>
       </c>
       <c r="F46" t="n">
-        <v>11424.014307379</v>
+        <v>11423.9635632276</v>
       </c>
       <c r="G46" t="s">
         <v>10</v>
@@ -1853,7 +1853,7 @@
         <v>1546</v>
       </c>
       <c r="I46" t="n">
-        <v>4312.55156439469</v>
+        <v>4312.16076944898</v>
       </c>
       <c r="J46" t="s">
         <v>11</v>
@@ -1864,19 +1864,19 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>8900.34779993821</v>
+        <v>8900.15436041966</v>
       </c>
       <c r="C47" t="n">
-        <v>5727.02386597733</v>
+        <v>5726.72807544836</v>
       </c>
       <c r="D47" t="n">
-        <v>4514.90342456768</v>
+        <v>4514.64852555375</v>
       </c>
       <c r="E47" t="n">
-        <v>13687.8728976434</v>
+        <v>13688.4486233006</v>
       </c>
       <c r="F47" t="n">
-        <v>17120.6958848744</v>
+        <v>17122.2521828554</v>
       </c>
       <c r="G47" t="s">
         <v>10</v>
@@ -1885,7 +1885,7 @@
         <v>2533</v>
       </c>
       <c r="I47" t="n">
-        <v>6367.34779993821</v>
+        <v>6367.15436041966</v>
       </c>
       <c r="J47" t="s">
         <v>11</v>
@@ -1896,19 +1896,19 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>15853.482570013</v>
+        <v>15854.3310687134</v>
       </c>
       <c r="C48" t="n">
-        <v>10337.6836343088</v>
+        <v>10337.4411919644</v>
       </c>
       <c r="D48" t="n">
-        <v>8209.47799721582</v>
+        <v>8209.07183882861</v>
       </c>
       <c r="E48" t="n">
-        <v>24073.7859943806</v>
+        <v>24077.8432264737</v>
       </c>
       <c r="F48" t="n">
-        <v>29916.8146382467</v>
+        <v>29924.1406619507</v>
       </c>
       <c r="G48" t="s">
         <v>10</v>
@@ -1917,7 +1917,7 @@
         <v>4637</v>
       </c>
       <c r="I48" t="n">
-        <v>11216.482570013</v>
+        <v>11217.3310687134</v>
       </c>
       <c r="J48" t="s">
         <v>11</v>
@@ -1928,19 +1928,19 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>20248.5316331256</v>
+        <v>20250.3041224815</v>
       </c>
       <c r="C49" t="n">
-        <v>13273.5603515402</v>
+        <v>13273.3991396538</v>
       </c>
       <c r="D49" t="n">
-        <v>10571.5696065387</v>
+        <v>10571.0453757421</v>
       </c>
       <c r="E49" t="n">
-        <v>30592.9897939499</v>
+        <v>30599.8896336525</v>
       </c>
       <c r="F49" t="n">
-        <v>37920.3707846853</v>
+        <v>37932.2724270618</v>
       </c>
       <c r="G49" t="s">
         <v>10</v>
@@ -1949,7 +1949,7 @@
         <v>5826</v>
       </c>
       <c r="I49" t="n">
-        <v>14422.5316331256</v>
+        <v>14424.3041224815</v>
       </c>
       <c r="J49" t="s">
         <v>11</v>

--- a/outcome/appendix/forecast/Scarlet fever.xlsx
+++ b/outcome/appendix/forecast/Scarlet fever.xlsx
@@ -424,19 +424,19 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>8590.31878731392</v>
+        <v>8590.55545794772</v>
       </c>
       <c r="C2" t="n">
-        <v>7120.65008452266</v>
+        <v>7120.99199528428</v>
       </c>
       <c r="D2" t="n">
-        <v>6442.26572676501</v>
+        <v>6442.63177566347</v>
       </c>
       <c r="E2" t="n">
-        <v>10343.4746120976</v>
+        <v>10343.4918011308</v>
       </c>
       <c r="F2" t="n">
-        <v>11403.355478134</v>
+        <v>11403.1917069796</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -445,7 +445,7 @@
         <v>6352</v>
       </c>
       <c r="I2" t="n">
-        <v>2238.31878731392</v>
+        <v>2238.55545794772</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -456,19 +456,19 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>3577.83605372011</v>
+        <v>3578.10584501437</v>
       </c>
       <c r="C3" t="n">
-        <v>2753.33533064878</v>
+        <v>2753.5587454982</v>
       </c>
       <c r="D3" t="n">
-        <v>2393.12097510818</v>
+        <v>2393.32454727979</v>
       </c>
       <c r="E3" t="n">
-        <v>4631.92390747328</v>
+        <v>4632.2382691947</v>
       </c>
       <c r="F3" t="n">
-        <v>5302.55966773974</v>
+        <v>5302.8880613783</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -477,7 +477,7 @@
         <v>580</v>
       </c>
       <c r="I3" t="n">
-        <v>2997.83605372011</v>
+        <v>2998.10584501437</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -488,19 +488,19 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>6667.77858386649</v>
+        <v>6668.19849635087</v>
       </c>
       <c r="C4" t="n">
-        <v>4978.69624742405</v>
+        <v>4979.08971410106</v>
       </c>
       <c r="D4" t="n">
-        <v>4257.17591087499</v>
+        <v>4257.53369041895</v>
       </c>
       <c r="E4" t="n">
-        <v>8888.72089059251</v>
+        <v>8889.03954054205</v>
       </c>
       <c r="F4" t="n">
-        <v>10331.049685079</v>
+        <v>10331.2183525646</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -509,7 +509,7 @@
         <v>444</v>
       </c>
       <c r="I4" t="n">
-        <v>6223.77858386649</v>
+        <v>6224.19849635087</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -520,19 +520,19 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>9350.7834780346</v>
+        <v>9351.01458928767</v>
       </c>
       <c r="C5" t="n">
-        <v>6838.83067578255</v>
+        <v>6839.20175545812</v>
       </c>
       <c r="D5" t="n">
-        <v>5782.29902819753</v>
+        <v>5782.67054069974</v>
       </c>
       <c r="E5" t="n">
-        <v>12717.9180053421</v>
+        <v>12717.6564709617</v>
       </c>
       <c r="F5" t="n">
-        <v>14935.4739456696</v>
+        <v>14934.7072380065</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -541,7 +541,7 @@
         <v>442</v>
       </c>
       <c r="I5" t="n">
-        <v>8908.7834780346</v>
+        <v>8909.01458928767</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -552,19 +552,19 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>14722.2015835566</v>
+        <v>14722.1026157016</v>
       </c>
       <c r="C6" t="n">
-        <v>10656.4806177822</v>
+        <v>10656.9962168143</v>
       </c>
       <c r="D6" t="n">
-        <v>8959.63300720713</v>
+        <v>8960.26044477281</v>
       </c>
       <c r="E6" t="n">
-        <v>20224.6998162506</v>
+        <v>20223.0592018083</v>
       </c>
       <c r="F6" t="n">
-        <v>23873.9557228852</v>
+        <v>23870.8902981935</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -573,7 +573,7 @@
         <v>562</v>
       </c>
       <c r="I6" t="n">
-        <v>14160.2015835566</v>
+        <v>14160.1026157016</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -584,19 +584,19 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>14836.4822250864</v>
+        <v>14836.3660059258</v>
       </c>
       <c r="C7" t="n">
-        <v>10600.1488691373</v>
+        <v>10600.6591070412</v>
       </c>
       <c r="D7" t="n">
-        <v>8849.27125581687</v>
+        <v>8849.88718461746</v>
       </c>
       <c r="E7" t="n">
-        <v>20639.5684572358</v>
+        <v>20637.8194006819</v>
       </c>
       <c r="F7" t="n">
-        <v>24522.018910245</v>
+        <v>24518.7323800601</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -605,7 +605,7 @@
         <v>677</v>
       </c>
       <c r="I7" t="n">
-        <v>14159.4822250864</v>
+        <v>14159.3660059258</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -616,19 +616,19 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>7549.84227996266</v>
+        <v>7550.13040700397</v>
       </c>
       <c r="C8" t="n">
-        <v>5271.76675273377</v>
+        <v>5272.05691621149</v>
       </c>
       <c r="D8" t="n">
-        <v>4346.28816264051</v>
+        <v>4346.54056893995</v>
       </c>
       <c r="E8" t="n">
-        <v>10737.3419521292</v>
+        <v>10737.3715039538</v>
       </c>
       <c r="F8" t="n">
-        <v>12902.8280148635</v>
+        <v>12902.5123579966</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -637,7 +637,7 @@
         <v>763</v>
       </c>
       <c r="I8" t="n">
-        <v>6786.84227996266</v>
+        <v>6787.13040700397</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -648,19 +648,19 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>3395.60668085945</v>
+        <v>3395.82260700388</v>
       </c>
       <c r="C9" t="n">
-        <v>2314.33600995959</v>
+        <v>2314.4799151252</v>
       </c>
       <c r="D9" t="n">
-        <v>1882.9640423425</v>
+        <v>1883.08890864401</v>
       </c>
       <c r="E9" t="n">
-        <v>4942.64564636444</v>
+        <v>4942.95636672188</v>
       </c>
       <c r="F9" t="n">
-        <v>6010.66667238612</v>
+        <v>6011.01403738089</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -669,7 +669,7 @@
         <v>763</v>
       </c>
       <c r="I9" t="n">
-        <v>2632.60668085945</v>
+        <v>2632.82260700388</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -680,19 +680,19 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>4392.44123127066</v>
+        <v>4392.73304643649</v>
       </c>
       <c r="C10" t="n">
-        <v>2992.73915690808</v>
+        <v>2992.93067181151</v>
       </c>
       <c r="D10" t="n">
-        <v>2434.48386958312</v>
+        <v>2434.63656097481</v>
       </c>
       <c r="E10" t="n">
-        <v>6395.75934797151</v>
+        <v>6396.13389832574</v>
       </c>
       <c r="F10" t="n">
-        <v>7779.11693312955</v>
+        <v>7779.48638366785</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -701,7 +701,7 @@
         <v>877</v>
       </c>
       <c r="I10" t="n">
-        <v>3515.44123127066</v>
+        <v>3515.73304643649</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -712,19 +712,19 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>6411.22214890756</v>
+        <v>6411.44780962406</v>
       </c>
       <c r="C11" t="n">
-        <v>4384.50299999997</v>
+        <v>4384.68620581086</v>
       </c>
       <c r="D11" t="n">
-        <v>3573.92044705538</v>
+        <v>3574.06448585724</v>
       </c>
       <c r="E11" t="n">
-        <v>9302.08773628277</v>
+        <v>9302.18343576314</v>
       </c>
       <c r="F11" t="n">
-        <v>11293.4422568459</v>
+        <v>11293.3087909844</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -733,7 +733,7 @@
         <v>1102</v>
       </c>
       <c r="I11" t="n">
-        <v>5309.22214890756</v>
+        <v>5309.44780962406</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -744,19 +744,19 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>11194.97639601</v>
+        <v>11194.8492558278</v>
       </c>
       <c r="C12" t="n">
-        <v>7721.12181576861</v>
+        <v>7721.30702479302</v>
       </c>
       <c r="D12" t="n">
-        <v>6322.90918387282</v>
+        <v>6323.12335749719</v>
       </c>
       <c r="E12" t="n">
-        <v>16111.5132405996</v>
+        <v>16110.3741052735</v>
       </c>
       <c r="F12" t="n">
-        <v>19479.2895281483</v>
+        <v>19477.1027945976</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -765,7 +765,7 @@
         <v>1925</v>
       </c>
       <c r="I12" t="n">
-        <v>9269.97639601</v>
+        <v>9269.84925582782</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -776,19 +776,19 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>14433.5653824503</v>
+        <v>14433.1258149453</v>
       </c>
       <c r="C13" t="n">
-        <v>9983.39720619023</v>
+        <v>9983.61124832781</v>
       </c>
       <c r="D13" t="n">
-        <v>8188.35997081816</v>
+        <v>8188.68068315129</v>
       </c>
       <c r="E13" t="n">
-        <v>20715.2232339532</v>
+        <v>20712.9947164342</v>
       </c>
       <c r="F13" t="n">
-        <v>25009.8969628089</v>
+        <v>25005.9266363169</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -797,7 +797,7 @@
         <v>2693</v>
       </c>
       <c r="I13" t="n">
-        <v>11740.5653824503</v>
+        <v>11740.1258149453</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -808,19 +808,19 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>9916.07166086039</v>
+        <v>9916.03188522118</v>
       </c>
       <c r="C14" t="n">
-        <v>6779.25295773246</v>
+        <v>6779.41076736106</v>
       </c>
       <c r="D14" t="n">
-        <v>5525.01096756418</v>
+        <v>5525.17221986786</v>
       </c>
       <c r="E14" t="n">
-        <v>14391.7708483403</v>
+        <v>14390.9734751593</v>
       </c>
       <c r="F14" t="n">
-        <v>17475.5280908285</v>
+        <v>17473.9028886889</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -829,7 +829,7 @@
         <v>2502</v>
       </c>
       <c r="I14" t="n">
-        <v>7414.07166086039</v>
+        <v>7414.03188522118</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -840,19 +840,19 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>3516.62759287962</v>
+        <v>3516.81866159695</v>
       </c>
       <c r="C15" t="n">
-        <v>2343.14352391882</v>
+        <v>2343.25685716363</v>
       </c>
       <c r="D15" t="n">
-        <v>1882.91100049191</v>
+        <v>1883.00562586525</v>
       </c>
       <c r="E15" t="n">
-        <v>5231.07294553359</v>
+        <v>5231.36799066133</v>
       </c>
       <c r="F15" t="n">
-        <v>6432.55082367599</v>
+        <v>6432.88292156105</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -861,7 +861,7 @@
         <v>989</v>
       </c>
       <c r="I15" t="n">
-        <v>2527.62759287962</v>
+        <v>2527.81866159695</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -872,19 +872,19 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>6334.53388228476</v>
+        <v>6334.7766174988</v>
       </c>
       <c r="C16" t="n">
-        <v>4266.6589713801</v>
+        <v>4266.8395197048</v>
       </c>
       <c r="D16" t="n">
-        <v>3449.04101704157</v>
+        <v>3449.17659540243</v>
       </c>
       <c r="E16" t="n">
-        <v>9325.82573060805</v>
+        <v>9325.96264704863</v>
       </c>
       <c r="F16" t="n">
-        <v>11407.2494239571</v>
+        <v>11407.1639907211</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -893,7 +893,7 @@
         <v>1819</v>
       </c>
       <c r="I16" t="n">
-        <v>4515.53388228476</v>
+        <v>4515.7766174988</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -904,19 +904,19 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>9911.29448557028</v>
+        <v>9911.43881266314</v>
       </c>
       <c r="C17" t="n">
-        <v>6729.64578362719</v>
+        <v>6729.92711217146</v>
       </c>
       <c r="D17" t="n">
-        <v>5464.03790336341</v>
+        <v>5464.29695657467</v>
       </c>
       <c r="E17" t="n">
-        <v>14479.8277354245</v>
+        <v>14479.282506298</v>
       </c>
       <c r="F17" t="n">
-        <v>17641.9195857237</v>
+        <v>17640.5776090243</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -925,7 +925,7 @@
         <v>2790</v>
       </c>
       <c r="I17" t="n">
-        <v>7121.29448557028</v>
+        <v>7121.43881266314</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -936,19 +936,19 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>15574.7027504214</v>
+        <v>15574.6322836746</v>
       </c>
       <c r="C18" t="n">
-        <v>10663.7266932359</v>
+        <v>10664.2996354849</v>
       </c>
       <c r="D18" t="n">
-        <v>8697.9173009591</v>
+        <v>8698.56128291044</v>
       </c>
       <c r="E18" t="n">
-        <v>22572.2877530763</v>
+        <v>22570.2610937376</v>
       </c>
       <c r="F18" t="n">
-        <v>27388.908184033</v>
+        <v>27384.9117318515</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -957,7 +957,7 @@
         <v>4124</v>
       </c>
       <c r="I18" t="n">
-        <v>11450.7027504214</v>
+        <v>11450.6322836746</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -968,19 +968,19 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>15643.391417699</v>
+        <v>15643.2017991274</v>
       </c>
       <c r="C19" t="n">
-        <v>10701.5743709736</v>
+        <v>10702.0690232241</v>
       </c>
       <c r="D19" t="n">
-        <v>8724.69689138177</v>
+        <v>8725.27721907785</v>
       </c>
       <c r="E19" t="n">
-        <v>22690.5050255657</v>
+        <v>22688.2898020598</v>
       </c>
       <c r="F19" t="n">
-        <v>27543.9830155414</v>
+        <v>27539.7427389054</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -989,7 +989,7 @@
         <v>4165</v>
       </c>
       <c r="I19" t="n">
-        <v>11478.391417699</v>
+        <v>11478.2017991274</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -1000,19 +1000,19 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>7989.88543073808</v>
+        <v>7990.09611377213</v>
       </c>
       <c r="C20" t="n">
-        <v>5383.40034779582</v>
+        <v>5383.61874172281</v>
       </c>
       <c r="D20" t="n">
-        <v>4352.57772583042</v>
+        <v>4352.75446704295</v>
       </c>
       <c r="E20" t="n">
-        <v>11759.2162460606</v>
+        <v>11759.0842450218</v>
       </c>
       <c r="F20" t="n">
-        <v>14381.4773116989</v>
+        <v>14380.8773203111</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1021,7 +1021,7 @@
         <v>2430</v>
       </c>
       <c r="I20" t="n">
-        <v>5559.88543073808</v>
+        <v>5560.09611377213</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -1032,19 +1032,19 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>3500.32112509647</v>
+        <v>3500.52074468416</v>
       </c>
       <c r="C21" t="n">
-        <v>2313.61446761208</v>
+        <v>2313.72983381069</v>
       </c>
       <c r="D21" t="n">
-        <v>1851.01106809695</v>
+        <v>1851.10656478975</v>
       </c>
       <c r="E21" t="n">
-        <v>5246.97407315593</v>
+        <v>5247.29052225921</v>
       </c>
       <c r="F21" t="n">
-        <v>6477.52868373074</v>
+        <v>6477.89087171447</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1053,7 +1053,7 @@
         <v>1152</v>
       </c>
       <c r="I21" t="n">
-        <v>2348.32112509647</v>
+        <v>2348.52074468416</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -1064,19 +1064,19 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>4415.34032220462</v>
+        <v>4415.55443865488</v>
       </c>
       <c r="C22" t="n">
-        <v>2932.70246594199</v>
+        <v>2932.82310014406</v>
       </c>
       <c r="D22" t="n">
-        <v>2352.61651393843</v>
+        <v>2352.70474305749</v>
       </c>
       <c r="E22" t="n">
-        <v>6587.81794756166</v>
+        <v>6588.10677956874</v>
       </c>
       <c r="F22" t="n">
-        <v>8113.48366012168</v>
+        <v>8113.75372269776</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1085,7 +1085,7 @@
         <v>1202</v>
       </c>
       <c r="I22" t="n">
-        <v>3213.34032220462</v>
+        <v>3213.55443865488</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -1096,19 +1096,19 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>7235.31442702887</v>
+        <v>7235.50985957153</v>
       </c>
       <c r="C23" t="n">
-        <v>4857.80329587796</v>
+        <v>4857.97636361865</v>
       </c>
       <c r="D23" t="n">
-        <v>3920.03265889598</v>
+        <v>3920.16412603513</v>
       </c>
       <c r="E23" t="n">
-        <v>10684.7216528143</v>
+        <v>10684.6795860193</v>
       </c>
       <c r="F23" t="n">
-        <v>13090.022539167</v>
+        <v>13089.6200623319</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1117,7 +1117,7 @@
         <v>1634</v>
       </c>
       <c r="I23" t="n">
-        <v>5601.31442702887</v>
+        <v>5601.50985957153</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -1128,19 +1128,19 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>13066.244190335</v>
+        <v>13065.9593852253</v>
       </c>
       <c r="C24" t="n">
-        <v>8884.26118702681</v>
+        <v>8884.462510736</v>
       </c>
       <c r="D24" t="n">
-        <v>7218.99328209991</v>
+        <v>7219.25278639885</v>
       </c>
       <c r="E24" t="n">
-        <v>19063.4536638721</v>
+        <v>19061.6743755982</v>
       </c>
       <c r="F24" t="n">
-        <v>23210.5715253473</v>
+        <v>23207.2657232896</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1149,7 +1149,7 @@
         <v>2717</v>
       </c>
       <c r="I24" t="n">
-        <v>10349.244190335</v>
+        <v>10348.9593852253</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -1160,19 +1160,19 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>16681.285950833</v>
+        <v>16680.5908822152</v>
       </c>
       <c r="C25" t="n">
-        <v>11399.2925924303</v>
+        <v>11399.5266826393</v>
       </c>
       <c r="D25" t="n">
-        <v>9288.05246478362</v>
+        <v>9288.44809456052</v>
       </c>
       <c r="E25" t="n">
-        <v>24221.0194012799</v>
+        <v>24217.8341111695</v>
       </c>
       <c r="F25" t="n">
-        <v>29417.5022251412</v>
+        <v>29411.9054428551</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1181,7 +1181,7 @@
         <v>3983</v>
       </c>
       <c r="I25" t="n">
-        <v>12698.285950833</v>
+        <v>12697.5908822152</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
@@ -1192,19 +1192,19 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>11624.7726688784</v>
+        <v>11624.6715126247</v>
       </c>
       <c r="C26" t="n">
-        <v>7878.50074348745</v>
+        <v>7878.72511685686</v>
       </c>
       <c r="D26" t="n">
-        <v>6390.37715339181</v>
+        <v>6390.62210226453</v>
       </c>
       <c r="E26" t="n">
-        <v>17013.2740533267</v>
+        <v>17012.0398969066</v>
       </c>
       <c r="F26" t="n">
-        <v>20747.4954852292</v>
+        <v>20745.0566467481</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1213,7 +1213,7 @@
         <v>3232</v>
       </c>
       <c r="I26" t="n">
-        <v>8392.77266887843</v>
+        <v>8392.67151262471</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -1224,19 +1224,19 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>3833.25891767003</v>
+        <v>3833.38051303695</v>
       </c>
       <c r="C27" t="n">
-        <v>2533.18773753288</v>
+        <v>2533.24897720798</v>
       </c>
       <c r="D27" t="n">
-        <v>2026.47125688823</v>
+        <v>2026.51895678614</v>
       </c>
       <c r="E27" t="n">
-        <v>5747.13044857938</v>
+        <v>5747.31348112091</v>
       </c>
       <c r="F27" t="n">
-        <v>7095.67715274554</v>
+        <v>7095.85351697238</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1245,7 +1245,7 @@
         <v>990</v>
       </c>
       <c r="I27" t="n">
-        <v>2843.25891767003</v>
+        <v>2843.38051303695</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -1256,19 +1256,19 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>7152.9402085794</v>
+        <v>7153.03472231025</v>
       </c>
       <c r="C28" t="n">
-        <v>4792.81205908473</v>
+        <v>4792.91980716717</v>
       </c>
       <c r="D28" t="n">
-        <v>3863.31401673248</v>
+        <v>3863.39447955325</v>
       </c>
       <c r="E28" t="n">
-        <v>10583.5094573121</v>
+        <v>10583.3150512119</v>
       </c>
       <c r="F28" t="n">
-        <v>12978.8697333491</v>
+        <v>12978.2784599084</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1277,7 +1277,7 @@
         <v>1848</v>
       </c>
       <c r="I28" t="n">
-        <v>5304.9402085794</v>
+        <v>5305.03472231025</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -1288,19 +1288,19 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>10445.4311502114</v>
+        <v>10445.3509496477</v>
       </c>
       <c r="C29" t="n">
-        <v>7055.88203690674</v>
+        <v>7056.04838825273</v>
       </c>
       <c r="D29" t="n">
-        <v>5712.8015060079</v>
+        <v>5712.97730005919</v>
       </c>
       <c r="E29" t="n">
-        <v>15335.703207592</v>
+        <v>15334.7054870979</v>
       </c>
       <c r="F29" t="n">
-        <v>18732.0680391384</v>
+        <v>18730.0710491116</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1309,7 +1309,7 @@
         <v>1639</v>
       </c>
       <c r="I29" t="n">
-        <v>8806.43115021144</v>
+        <v>8806.35094964769</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1320,19 +1320,19 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>15018.8783622137</v>
+        <v>15018.3470779949</v>
       </c>
       <c r="C30" t="n">
-        <v>10223.2210995972</v>
+        <v>10223.4388967131</v>
       </c>
       <c r="D30" t="n">
-        <v>8312.00466784494</v>
+        <v>8312.34216724628</v>
       </c>
       <c r="E30" t="n">
-        <v>21889.149272962</v>
+        <v>21886.5293494119</v>
       </c>
       <c r="F30" t="n">
-        <v>26636.5295934711</v>
+        <v>26631.851847746</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1341,7 +1341,7 @@
         <v>2588</v>
       </c>
       <c r="I30" t="n">
-        <v>12430.8783622137</v>
+        <v>12430.3470779949</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1352,19 +1352,19 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>15758.3653640076</v>
+        <v>15757.7345817924</v>
       </c>
       <c r="C31" t="n">
-        <v>10736.1088731742</v>
+        <v>10736.3274887674</v>
       </c>
       <c r="D31" t="n">
-        <v>8733.24909137608</v>
+        <v>8733.61164461164</v>
       </c>
       <c r="E31" t="n">
-        <v>22947.375561747</v>
+        <v>22944.4347398764</v>
       </c>
       <c r="F31" t="n">
-        <v>27912.0846564851</v>
+        <v>27906.890603918</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1373,7 +1373,7 @@
         <v>2896</v>
       </c>
       <c r="I31" t="n">
-        <v>12862.3653640076</v>
+        <v>12861.7345817924</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -1384,19 +1384,19 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>8615.99783763012</v>
+        <v>8616.05589896148</v>
       </c>
       <c r="C32" t="n">
-        <v>5793.02620587267</v>
+        <v>5793.18142553928</v>
       </c>
       <c r="D32" t="n">
-        <v>4678.36532474212</v>
+        <v>4678.50220269588</v>
       </c>
       <c r="E32" t="n">
-        <v>12706.3713533467</v>
+        <v>12705.8898683098</v>
       </c>
       <c r="F32" t="n">
-        <v>15555.9618681593</v>
+        <v>15554.8348844866</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1405,7 +1405,7 @@
         <v>1758</v>
       </c>
       <c r="I32" t="n">
-        <v>6857.99783763012</v>
+        <v>6858.05589896148</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -1416,19 +1416,19 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>3695.77030846772</v>
+        <v>3695.89861784765</v>
       </c>
       <c r="C33" t="n">
-        <v>2437.47376836697</v>
+        <v>2437.54385405935</v>
       </c>
       <c r="D33" t="n">
-        <v>1947.77437144063</v>
+        <v>1947.83263895463</v>
       </c>
       <c r="E33" t="n">
-        <v>5551.53625294736</v>
+        <v>5551.72866463355</v>
       </c>
       <c r="F33" t="n">
-        <v>6860.85255181294</v>
+        <v>6861.04379790705</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1437,7 +1437,7 @@
         <v>940</v>
       </c>
       <c r="I33" t="n">
-        <v>2755.77030846772</v>
+        <v>2755.89861784765</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -1448,19 +1448,19 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>4951.50868447095</v>
+        <v>4951.66385508138</v>
       </c>
       <c r="C34" t="n">
-        <v>3287.53762723572</v>
+        <v>3287.63006778165</v>
       </c>
       <c r="D34" t="n">
-        <v>2636.70380914289</v>
+        <v>2636.76888671935</v>
       </c>
       <c r="E34" t="n">
-        <v>7390.60135690495</v>
+        <v>7390.744058134</v>
       </c>
       <c r="F34" t="n">
-        <v>9103.96103907328</v>
+        <v>9103.99754711148</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1469,7 +1469,7 @@
         <v>1020</v>
       </c>
       <c r="I34" t="n">
-        <v>3931.50868447095</v>
+        <v>3931.66385508138</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -1480,19 +1480,19 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>7855.67903908861</v>
+        <v>7855.80067100037</v>
       </c>
       <c r="C35" t="n">
-        <v>5269.99579750926</v>
+        <v>5270.15763563987</v>
       </c>
       <c r="D35" t="n">
-        <v>4250.74962988136</v>
+        <v>4250.88288184425</v>
       </c>
       <c r="E35" t="n">
-        <v>11609.9695672531</v>
+        <v>11609.6988207248</v>
       </c>
       <c r="F35" t="n">
-        <v>14229.29744696</v>
+        <v>14228.5204771726</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1501,7 +1501,7 @@
         <v>1383</v>
       </c>
       <c r="I35" t="n">
-        <v>6472.67903908861</v>
+        <v>6472.80067100037</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1512,19 +1512,19 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>14416.8052126169</v>
+        <v>14416.3861771892</v>
       </c>
       <c r="C36" t="n">
-        <v>9800.21095707031</v>
+        <v>9800.45839448469</v>
       </c>
       <c r="D36" t="n">
-        <v>7962.21744148184</v>
+        <v>7962.56288685588</v>
       </c>
       <c r="E36" t="n">
-        <v>21038.7601159022</v>
+        <v>21036.4254570724</v>
       </c>
       <c r="F36" t="n">
-        <v>25618.6333799584</v>
+        <v>25614.3898598966</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1533,7 +1533,7 @@
         <v>1896</v>
       </c>
       <c r="I36" t="n">
-        <v>12520.8052126169</v>
+        <v>12520.3861771892</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -1544,19 +1544,19 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>18363.905697455</v>
+        <v>18362.9759793676</v>
       </c>
       <c r="C37" t="n">
-        <v>12547.5259445858</v>
+        <v>12547.7994596417</v>
       </c>
       <c r="D37" t="n">
-        <v>10222.9162859258</v>
+        <v>10223.4177044415</v>
       </c>
       <c r="E37" t="n">
-        <v>26667.4410098132</v>
+        <v>26663.4155113129</v>
       </c>
       <c r="F37" t="n">
-        <v>32390.8400521951</v>
+        <v>32383.8672998109</v>
       </c>
       <c r="G37" t="s">
         <v>10</v>
@@ -1565,7 +1565,7 @@
         <v>1026</v>
       </c>
       <c r="I37" t="n">
-        <v>17337.905697455</v>
+        <v>17336.9759793676</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -1576,19 +1576,19 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>12522.0785259129</v>
+        <v>12522.0165860839</v>
       </c>
       <c r="C38" t="n">
-        <v>8388.96957778694</v>
+        <v>8389.32458421106</v>
       </c>
       <c r="D38" t="n">
-        <v>6761.45633437411</v>
+        <v>6761.83932682292</v>
       </c>
       <c r="E38" t="n">
-        <v>18530.8710930978</v>
+        <v>18529.3725630402</v>
       </c>
       <c r="F38" t="n">
-        <v>22727.0019675018</v>
+        <v>22723.9791728727</v>
       </c>
       <c r="G38" t="s">
         <v>10</v>
@@ -1597,7 +1597,7 @@
         <v>276</v>
       </c>
       <c r="I38" t="n">
-        <v>12246.0785259129</v>
+        <v>12246.0165860839</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -1608,19 +1608,19 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>4655.18161992598</v>
+        <v>4655.50993659289</v>
       </c>
       <c r="C39" t="n">
-        <v>3021.18333982109</v>
+        <v>3021.3937526526</v>
       </c>
       <c r="D39" t="n">
-        <v>2392.98223210264</v>
+        <v>2393.14718021428</v>
       </c>
       <c r="E39" t="n">
-        <v>7101.12654235383</v>
+        <v>7101.5285578448</v>
       </c>
       <c r="F39" t="n">
-        <v>8845.25020906672</v>
+        <v>8845.6018156441</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
@@ -1629,7 +1629,7 @@
         <v>470</v>
       </c>
       <c r="I39" t="n">
-        <v>4185.18161992598</v>
+        <v>4185.50993659289</v>
       </c>
       <c r="J39" t="s">
         <v>11</v>
@@ -1640,19 +1640,19 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>8614.92596994308</v>
+        <v>8615.28450282914</v>
       </c>
       <c r="C40" t="n">
-        <v>5636.05846706469</v>
+        <v>5636.4346631952</v>
       </c>
       <c r="D40" t="n">
-        <v>4483.88772462668</v>
+        <v>4484.20628912381</v>
       </c>
       <c r="E40" t="n">
-        <v>13041.4108755313</v>
+        <v>13041.2634537899</v>
       </c>
       <c r="F40" t="n">
-        <v>16181.3057249887</v>
+        <v>16180.4684022423</v>
       </c>
       <c r="G40" t="s">
         <v>10</v>
@@ -1661,7 +1661,7 @@
         <v>858</v>
       </c>
       <c r="I40" t="n">
-        <v>7756.92596994308</v>
+        <v>7757.28450282914</v>
       </c>
       <c r="J40" t="s">
         <v>11</v>
@@ -1672,19 +1672,19 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>12300.0417728992</v>
+        <v>12299.9565806107</v>
       </c>
       <c r="C41" t="n">
-        <v>8075.05968046397</v>
+        <v>8075.4008761914</v>
       </c>
       <c r="D41" t="n">
-        <v>6436.61984355574</v>
+        <v>6436.98489668681</v>
       </c>
       <c r="E41" t="n">
-        <v>18558.1602265122</v>
+        <v>18556.5372570486</v>
       </c>
       <c r="F41" t="n">
-        <v>22987.1826319035</v>
+        <v>22983.8909499249</v>
       </c>
       <c r="G41" t="s">
         <v>10</v>
@@ -1693,7 +1693,7 @@
         <v>1102</v>
       </c>
       <c r="I41" t="n">
-        <v>11198.0417728992</v>
+        <v>11197.9565806107</v>
       </c>
       <c r="J41" t="s">
         <v>11</v>
@@ -1704,19 +1704,19 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>18364.3236052711</v>
+        <v>18363.2909237499</v>
       </c>
       <c r="C42" t="n">
-        <v>12125.278538423</v>
+        <v>12125.5781988019</v>
       </c>
       <c r="D42" t="n">
-        <v>9695.35706498686</v>
+        <v>9695.88580465535</v>
       </c>
       <c r="E42" t="n">
-        <v>27557.3558388611</v>
+        <v>27552.6686598412</v>
       </c>
       <c r="F42" t="n">
-        <v>34039.1386856058</v>
+        <v>34030.8479194627</v>
       </c>
       <c r="G42" t="s">
         <v>10</v>
@@ -1725,7 +1725,7 @@
         <v>1898</v>
       </c>
       <c r="I42" t="n">
-        <v>16466.3236052711</v>
+        <v>16465.2909237499</v>
       </c>
       <c r="J42" t="s">
         <v>11</v>
@@ -1736,19 +1736,19 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>18903.3243204229</v>
+        <v>18902.2143623859</v>
       </c>
       <c r="C43" t="n">
-        <v>12455.8400420586</v>
+        <v>12456.1516118905</v>
       </c>
       <c r="D43" t="n">
-        <v>9948.59077663506</v>
+        <v>9949.14885820925</v>
       </c>
       <c r="E43" t="n">
-        <v>28421.294642536</v>
+        <v>28416.298516864</v>
       </c>
       <c r="F43" t="n">
-        <v>35141.1757610774</v>
+        <v>35132.3514743134</v>
       </c>
       <c r="G43" t="s">
         <v>10</v>
@@ -1757,7 +1757,7 @@
         <v>2684</v>
       </c>
       <c r="I43" t="n">
-        <v>16219.3243204229</v>
+        <v>16218.2143623859</v>
       </c>
       <c r="J43" t="s">
         <v>11</v>
@@ -1768,19 +1768,19 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>10070.5392649277</v>
+        <v>10070.6975039659</v>
       </c>
       <c r="C44" t="n">
-        <v>6523.91759795233</v>
+        <v>6524.25148305521</v>
       </c>
       <c r="D44" t="n">
-        <v>5162.32467463555</v>
+        <v>5162.63014230033</v>
       </c>
       <c r="E44" t="n">
-        <v>15388.6515899911</v>
+        <v>15387.8673812582</v>
       </c>
       <c r="F44" t="n">
-        <v>19185.4817547704</v>
+        <v>19183.5678934395</v>
       </c>
       <c r="G44" t="s">
         <v>10</v>
@@ -1789,7 +1789,7 @@
         <v>2237</v>
       </c>
       <c r="I44" t="n">
-        <v>7833.53926492771</v>
+        <v>7833.69750396587</v>
       </c>
       <c r="J44" t="s">
         <v>11</v>
@@ -1800,19 +1800,19 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>4460.19630458183</v>
+        <v>4460.48439705432</v>
       </c>
       <c r="C45" t="n">
-        <v>2826.95611769529</v>
+        <v>2827.13489083303</v>
       </c>
       <c r="D45" t="n">
-        <v>2210.20259513508</v>
+        <v>2210.34352457928</v>
       </c>
       <c r="E45" t="n">
-        <v>6958.79471014591</v>
+        <v>6959.15093636622</v>
       </c>
       <c r="F45" t="n">
-        <v>8768.28008798439</v>
+        <v>8768.57649866307</v>
       </c>
       <c r="G45" t="s">
         <v>10</v>
@@ -1821,7 +1821,7 @@
         <v>1209</v>
       </c>
       <c r="I45" t="n">
-        <v>3251.19630458183</v>
+        <v>3251.48439705432</v>
       </c>
       <c r="J45" t="s">
         <v>11</v>
@@ -1832,19 +1832,19 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>5858.16076944898</v>
+        <v>5858.52470785777</v>
       </c>
       <c r="C46" t="n">
-        <v>3733.96308740774</v>
+        <v>3734.21630268493</v>
       </c>
       <c r="D46" t="n">
-        <v>2928.39894802893</v>
+        <v>2928.59323543593</v>
       </c>
       <c r="E46" t="n">
-        <v>9091.16779362158</v>
+        <v>9091.47140348403</v>
       </c>
       <c r="F46" t="n">
-        <v>11423.9635632276</v>
+        <v>11424.0329784997</v>
       </c>
       <c r="G46" t="s">
         <v>10</v>
@@ -1853,7 +1853,7 @@
         <v>1546</v>
       </c>
       <c r="I46" t="n">
-        <v>4312.16076944898</v>
+        <v>4312.52470785777</v>
       </c>
       <c r="J46" t="s">
         <v>11</v>
@@ -1864,19 +1864,19 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>8900.15436041966</v>
+        <v>8900.34729672194</v>
       </c>
       <c r="C47" t="n">
-        <v>5726.72807544836</v>
+        <v>5727.00644805321</v>
       </c>
       <c r="D47" t="n">
-        <v>4514.64852555375</v>
+        <v>4514.88753950325</v>
       </c>
       <c r="E47" t="n">
-        <v>13688.4486233006</v>
+        <v>13687.959356615</v>
       </c>
       <c r="F47" t="n">
-        <v>17122.2521828554</v>
+        <v>17120.8875789536</v>
       </c>
       <c r="G47" t="s">
         <v>10</v>
@@ -1885,7 +1885,7 @@
         <v>2533</v>
       </c>
       <c r="I47" t="n">
-        <v>6367.15436041966</v>
+        <v>6367.34729672194</v>
       </c>
       <c r="J47" t="s">
         <v>11</v>
@@ -1896,19 +1896,19 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>15854.3310687134</v>
+        <v>15853.6001305972</v>
       </c>
       <c r="C48" t="n">
-        <v>10337.4411919644</v>
+        <v>10337.6807782968</v>
       </c>
       <c r="D48" t="n">
-        <v>8209.07183882861</v>
+        <v>8209.45438916274</v>
       </c>
       <c r="E48" t="n">
-        <v>24077.8432264737</v>
+        <v>24074.2412047084</v>
       </c>
       <c r="F48" t="n">
-        <v>29924.1406619507</v>
+        <v>29917.6085721831</v>
       </c>
       <c r="G48" t="s">
         <v>10</v>
@@ -1917,7 +1917,7 @@
         <v>4637</v>
       </c>
       <c r="I48" t="n">
-        <v>11217.3310687134</v>
+        <v>11216.6001305972</v>
       </c>
       <c r="J48" t="s">
         <v>11</v>
@@ -1928,19 +1928,19 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>20250.3041224815</v>
+        <v>20248.7502616456</v>
       </c>
       <c r="C49" t="n">
-        <v>13273.3991396538</v>
+        <v>13273.5714333424</v>
       </c>
       <c r="D49" t="n">
-        <v>10571.0453757421</v>
+        <v>10571.5388753872</v>
       </c>
       <c r="E49" t="n">
-        <v>30599.8896336525</v>
+        <v>30593.7420233464</v>
       </c>
       <c r="F49" t="n">
-        <v>37932.2724270618</v>
+        <v>37921.6378467551</v>
       </c>
       <c r="G49" t="s">
         <v>10</v>
@@ -1949,7 +1949,7 @@
         <v>5826</v>
       </c>
       <c r="I49" t="n">
-        <v>14424.3041224815</v>
+        <v>14422.7502616456</v>
       </c>
       <c r="J49" t="s">
         <v>11</v>
